--- a/etf_dfs/ENOR.xlsx
+++ b/etf_dfs/ENOR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>ENOR</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>40909</v>
       </c>
@@ -456,13 +462,13 @@
         <v>26.1299991607666</v>
       </c>
       <c r="F2">
-        <v>20.20322799682617</v>
+        <v>20.20322418212891</v>
       </c>
       <c r="G2">
         <v>23300</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>40940</v>
       </c>
@@ -488,7 +494,7 @@
         <v>0.1335630229834424</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>40969</v>
       </c>
@@ -505,7 +511,7 @@
         <v>28.76000022888184</v>
       </c>
       <c r="F4">
-        <v>22.2366943359375</v>
+        <v>22.23669242858887</v>
       </c>
       <c r="G4">
         <v>15700</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>-0.02903445597518151</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.1149737799754799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>41000</v>
       </c>
@@ -531,7 +540,7 @@
         <v>27.97999954223633</v>
       </c>
       <c r="F5">
-        <v>21.63361167907715</v>
+        <v>21.63361358642578</v>
       </c>
       <c r="G5">
         <v>1500</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>-0.02712102504999991</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.09332824212961044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>41030</v>
       </c>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.1508219936524418</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.1166440226814343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>41061</v>
       </c>
@@ -583,7 +598,7 @@
         <v>24.96999931335449</v>
       </c>
       <c r="F7">
-        <v>19.81221389770508</v>
+        <v>19.81221199035645</v>
       </c>
       <c r="G7">
         <v>2500</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>0.05092588690305755</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.1056612551492981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>41091</v>
       </c>
@@ -609,7 +627,7 @@
         <v>25.55999946594238</v>
       </c>
       <c r="F8">
-        <v>20.28034591674805</v>
+        <v>20.28034400939941</v>
       </c>
       <c r="G8">
         <v>16000</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.0236283607854304</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.09520129555746067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>41122</v>
       </c>
@@ -635,7 +656,7 @@
         <v>26.98999977111816</v>
       </c>
       <c r="F9">
-        <v>21.41496849060059</v>
+        <v>21.41496467590332</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.05594680497083715</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.08942514616605043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>41153</v>
       </c>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.04557241766087539</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.08384184164785219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>41183</v>
       </c>
@@ -687,7 +714,7 @@
         <v>28.20000076293945</v>
       </c>
       <c r="F11">
-        <v>22.37502861022949</v>
+        <v>22.37503051757812</v>
       </c>
       <c r="G11">
         <v>10600</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>-0.0007086658717803118</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.07855664151624779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>41214</v>
       </c>
@@ -713,7 +743,7 @@
         <v>28.23999977111816</v>
       </c>
       <c r="F12">
-        <v>22.40676879882812</v>
+        <v>22.40676689147949</v>
       </c>
       <c r="G12">
         <v>500</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>0.001418404506970061</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.07413017395873617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>41244</v>
       </c>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0.03045327965020417</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.07058712756023031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>41275</v>
       </c>
@@ -765,7 +801,7 @@
         <v>30.57999992370605</v>
       </c>
       <c r="F14">
-        <v>24.2634162902832</v>
+        <v>24.26341438293457</v>
       </c>
       <c r="G14">
         <v>21700</v>
@@ -774,13 +810,16 @@
         <v>0.05085909013179113</v>
       </c>
       <c r="I14">
-        <v>0.1703023691489816</v>
+        <v>0.06822279252442394</v>
       </c>
       <c r="J14">
         <v>0.1703023691489816</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.1703023691489816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>41306</v>
       </c>
@@ -797,7 +836,7 @@
         <v>29.88999938964844</v>
       </c>
       <c r="F15">
-        <v>23.7159423828125</v>
+        <v>23.71594619750977</v>
       </c>
       <c r="G15">
         <v>214200</v>
@@ -806,13 +845,16 @@
         <v>-0.02256378468865594</v>
       </c>
       <c r="I15">
-        <v>0.009115413327652977</v>
+        <v>0.0661611247042897</v>
       </c>
       <c r="J15">
         <v>0.009115413327652977</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.009115413327652977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>41334</v>
       </c>
@@ -838,13 +880,16 @@
         <v>-0.01605886758239827</v>
       </c>
       <c r="I16">
-        <v>0.02260082104858685</v>
+        <v>0.06402122474175979</v>
       </c>
       <c r="J16">
         <v>0.02260082104858685</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.02260082104858685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>41365</v>
       </c>
@@ -861,7 +906,7 @@
         <v>29.44000053405762</v>
       </c>
       <c r="F17">
-        <v>23.3588924407959</v>
+        <v>23.35889053344727</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -870,13 +915,16 @@
         <v>0.001020084556312861</v>
       </c>
       <c r="I17">
-        <v>0.05218016496452726</v>
+        <v>0.06174024822614473</v>
       </c>
       <c r="J17">
         <v>0.05218016496452726</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.05218016496452726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>41395</v>
       </c>
@@ -893,7 +941,7 @@
         <v>29.64999961853027</v>
       </c>
       <c r="F18">
-        <v>23.5255184173584</v>
+        <v>23.52551651000977</v>
       </c>
       <c r="G18">
         <v>6000</v>
@@ -902,13 +950,16 @@
         <v>0.00713312094643892</v>
       </c>
       <c r="I18">
-        <v>0.2478955948194292</v>
+        <v>0.05965048726107233</v>
       </c>
       <c r="J18">
         <v>0.2478955948194292</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.2478955948194292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>41426</v>
       </c>
@@ -925,7 +976,7 @@
         <v>26.96999931335449</v>
       </c>
       <c r="F19">
-        <v>21.39909934997559</v>
+        <v>21.39909553527832</v>
       </c>
       <c r="G19">
         <v>7600</v>
@@ -934,13 +985,16 @@
         <v>-0.09038786980290103</v>
       </c>
       <c r="I19">
-        <v>0.08009611754095469</v>
+        <v>0.06264452675192994</v>
       </c>
       <c r="J19">
         <v>0.08009611754095469</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.08009611754095469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>41456</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>29.38999938964844</v>
       </c>
       <c r="F20">
-        <v>23.31922149658203</v>
+        <v>23.3192253112793</v>
       </c>
       <c r="G20">
         <v>5300</v>
@@ -966,13 +1020,16 @@
         <v>0.08972933399726313</v>
       </c>
       <c r="I20">
-        <v>0.1498435056232832</v>
+        <v>0.06406358837166949</v>
       </c>
       <c r="J20">
         <v>0.1498435056232832</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.1498435056232832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>41487</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>28.22999954223633</v>
       </c>
       <c r="F21">
-        <v>22.39883232116699</v>
+        <v>22.39883041381836</v>
       </c>
       <c r="G21">
         <v>400</v>
@@ -998,13 +1055,16 @@
         <v>-0.03946920284117728</v>
       </c>
       <c r="I21">
-        <v>0.04594293373966907</v>
+        <v>0.06322498090712021</v>
       </c>
       <c r="J21">
         <v>0.04594293373966907</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.04594293373966907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>41518</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>29.14999961853027</v>
       </c>
       <c r="F22">
-        <v>23.1287956237793</v>
+        <v>23.12879943847656</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1030,13 +1090,16 @@
         <v>0.03258944708509426</v>
       </c>
       <c r="I22">
-        <v>0.03295536243105723</v>
+        <v>0.06182513259039314</v>
       </c>
       <c r="J22">
         <v>0.03295536243105723</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.03295536243105723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>41548</v>
       </c>
@@ -1062,13 +1125,16 @@
         <v>0.06998287966462069</v>
       </c>
       <c r="I23">
-        <v>0.1060283578093952</v>
+        <v>0.06179102515649999</v>
       </c>
       <c r="J23">
         <v>0.1060283578093952</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.1060283578093952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>41579</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>30.71999931335449</v>
       </c>
       <c r="F24">
-        <v>24.3745002746582</v>
+        <v>24.37449836730957</v>
       </c>
       <c r="G24">
         <v>1200</v>
@@ -1094,13 +1160,16 @@
         <v>-0.01506897122973472</v>
       </c>
       <c r="I24">
-        <v>0.08781868138585081</v>
+        <v>0.06054426502464675</v>
       </c>
       <c r="J24">
         <v>0.08781868138585081</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.08781868138585081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>41609</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>30.90999984741211</v>
       </c>
       <c r="F25">
-        <v>24.63618087768555</v>
+        <v>24.63618469238281</v>
       </c>
       <c r="G25">
         <v>3500</v>
@@ -1126,13 +1195,16 @@
         <v>0.006184913356265032</v>
       </c>
       <c r="I25">
-        <v>0.06219929354691534</v>
+        <v>0.05915551626554344</v>
       </c>
       <c r="J25">
         <v>0.06219929354691534</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.06219929354691534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>41640</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>29.29000091552734</v>
       </c>
       <c r="F26">
-        <v>23.34499359130859</v>
+        <v>23.34499549865723</v>
       </c>
       <c r="G26">
         <v>9500</v>
@@ -1158,13 +1230,16 @@
         <v>-0.05241018893179961</v>
       </c>
       <c r="I26">
-        <v>-0.04218440194235207</v>
+        <v>0.05919910497344448</v>
       </c>
       <c r="J26">
         <v>-0.04218440194235207</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>-0.04218440194235207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>41671</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>31.3700008392334</v>
       </c>
       <c r="F27">
-        <v>25.00282096862793</v>
+        <v>25.00281715393066</v>
       </c>
       <c r="G27">
         <v>1500</v>
@@ -1190,13 +1265,16 @@
         <v>0.07101399312703327</v>
       </c>
       <c r="I27">
-        <v>0.04951493743079549</v>
+        <v>0.05937281544759049</v>
       </c>
       <c r="J27">
         <v>0.04951493743079549</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.04951493743079549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>41699</v>
       </c>
@@ -1222,13 +1300,16 @@
         <v>0.002550204704043324</v>
       </c>
       <c r="I28">
-        <v>0.0693641933393907</v>
+        <v>0.05818722698709843</v>
       </c>
       <c r="J28">
         <v>0.0693641933393907</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.0693641933393907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>41730</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>32.93000030517578</v>
       </c>
       <c r="F29">
-        <v>26.24618339538574</v>
+        <v>26.24618148803711</v>
       </c>
       <c r="G29">
         <v>11800</v>
@@ -1254,13 +1335,16 @@
         <v>0.04705880783253757</v>
       </c>
       <c r="I29">
-        <v>0.1185461857271628</v>
+        <v>0.05753025987996773</v>
       </c>
       <c r="J29">
         <v>0.1185461857271628</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.1185461857271628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>41760</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>33.90999984741211</v>
       </c>
       <c r="F30">
-        <v>27.02727317810059</v>
+        <v>27.02727127075195</v>
       </c>
       <c r="G30">
         <v>6600</v>
@@ -1286,13 +1370,16 @@
         <v>0.02976008299891508</v>
       </c>
       <c r="I30">
-        <v>0.143676232164923</v>
+        <v>0.05657545489407157</v>
       </c>
       <c r="J30">
         <v>0.143676232164923</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.143676232164923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>41791</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>32.90999984741211</v>
       </c>
       <c r="F31">
-        <v>26.92295265197754</v>
+        <v>26.92295074462891</v>
       </c>
       <c r="G31">
         <v>3500</v>
@@ -1318,13 +1405,16 @@
         <v>-0.02948982614272455</v>
       </c>
       <c r="I31">
-        <v>0.2202447417607594</v>
+        <v>0.05606046493280914</v>
       </c>
       <c r="J31">
         <v>0.2202447417607594</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.2202447417607594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>41821</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>31.15999984741211</v>
       </c>
       <c r="F32">
-        <v>25.4913158416748</v>
+        <v>25.49131393432617</v>
       </c>
       <c r="G32">
         <v>24200</v>
@@ -1350,13 +1440,16 @@
         <v>-0.05317532689498361</v>
       </c>
       <c r="I32">
-        <v>0.06022458300516642</v>
+        <v>0.05626235760442862</v>
       </c>
       <c r="J32">
         <v>0.06022458300516642</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.06022458300516642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>41852</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>26.17850112915039</v>
+        <v>26.17849922180176</v>
       </c>
       <c r="G33">
         <v>28200</v>
@@ -1382,13 +1475,16 @@
         <v>0.02695764302635761</v>
       </c>
       <c r="I33">
-        <v>0.1335458915655732</v>
+        <v>0.05542771113229083</v>
       </c>
       <c r="J33">
         <v>0.1335458915655732</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.1335458915655732</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>41883</v>
       </c>
@@ -1414,13 +1510,16 @@
         <v>-0.05781251192092896</v>
       </c>
       <c r="I34">
-        <v>0.03430531777311963</v>
+        <v>0.05575616681232731</v>
       </c>
       <c r="J34">
         <v>0.03430531777311963</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.03430531777311963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>41913</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>27.39999961853027</v>
       </c>
       <c r="F35">
-        <v>22.41534042358398</v>
+        <v>22.41533851623535</v>
       </c>
       <c r="G35">
         <v>290800</v>
@@ -1446,13 +1545,16 @@
         <v>-0.09121061475270609</v>
       </c>
       <c r="I35">
-        <v>-0.121513332819244</v>
+        <v>0.05742824961910622</v>
       </c>
       <c r="J35">
         <v>-0.121513332819244</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>-0.121513332819244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>41944</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>25.01000022888184</v>
       </c>
       <c r="F36">
-        <v>20.46013259887695</v>
+        <v>20.46013450622559</v>
       </c>
       <c r="G36">
         <v>20200</v>
@@ -1478,13 +1580,16 @@
         <v>-0.0872262563110443</v>
       </c>
       <c r="I36">
-        <v>-0.1858723701855822</v>
+        <v>0.05863295208754588</v>
       </c>
       <c r="J36">
         <v>-0.1858723701855822</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>-0.1858723701855822</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>41974</v>
       </c>
@@ -1510,13 +1615,16 @@
         <v>-0.06837268997089252</v>
       </c>
       <c r="I37">
-        <v>-0.2461986621778873</v>
+        <v>0.05892254390156505</v>
       </c>
       <c r="J37">
         <v>-0.2461986621778873</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-0.2461986621778873</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>42005</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>23.21999931335449</v>
       </c>
       <c r="F38">
-        <v>19.14423751831055</v>
+        <v>19.14423561096191</v>
       </c>
       <c r="G38">
         <v>26700</v>
@@ -1542,13 +1650,16 @@
         <v>-0.003433473232857809</v>
       </c>
       <c r="I38">
-        <v>-0.2072380133984563</v>
+        <v>0.05807553311612117</v>
       </c>
       <c r="J38">
         <v>-0.2072380133984563</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.2072380133984563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>42036</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>24.10000038146973</v>
       </c>
       <c r="F39">
-        <v>19.86977195739746</v>
+        <v>19.86977386474609</v>
       </c>
       <c r="G39">
         <v>21700</v>
@@ -1574,13 +1685,16 @@
         <v>0.03789841060025867</v>
       </c>
       <c r="I39">
-        <v>-0.2317500880864284</v>
+        <v>0.05763045961510782</v>
       </c>
       <c r="J39">
         <v>-0.2317500880864284</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-0.2317500880864284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>42064</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>22.68000030517578</v>
       </c>
       <c r="F40">
-        <v>18.69902229309082</v>
+        <v>18.69902420043945</v>
       </c>
       <c r="G40">
         <v>12700</v>
@@ -1606,13 +1720,16 @@
         <v>-0.05892116405880932</v>
       </c>
       <c r="I40">
-        <v>-0.2788553337047357</v>
+        <v>0.05762974865349214</v>
       </c>
       <c r="J40">
         <v>-0.2788553337047357</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-0.2788553337047357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>42095</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>25.60000038146973</v>
       </c>
       <c r="F41">
-        <v>21.10648155212402</v>
+        <v>21.10647964477539</v>
       </c>
       <c r="G41">
         <v>47400</v>
@@ -1638,13 +1755,16 @@
         <v>0.128747797045998</v>
       </c>
       <c r="I41">
-        <v>-0.2225933755170345</v>
+        <v>0.06060245805042819</v>
       </c>
       <c r="J41">
         <v>-0.2225933755170345</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>-0.2225933755170345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>42125</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>24.59000015258789</v>
       </c>
       <c r="F42">
-        <v>20.27376365661621</v>
+        <v>20.27376747131348</v>
       </c>
       <c r="G42">
         <v>14300</v>
@@ -1670,13 +1790,16 @@
         <v>-0.03945313335279921</v>
       </c>
       <c r="I42">
-        <v>-0.2748451706506123</v>
+        <v>0.06016606844554725</v>
       </c>
       <c r="J42">
         <v>-0.2748451706506123</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>-0.2748451706506123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>42156</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>23.31999969482422</v>
       </c>
       <c r="F43">
-        <v>19.55745887756348</v>
+        <v>19.55746269226074</v>
       </c>
       <c r="G43">
         <v>7400</v>
@@ -1702,13 +1825,16 @@
         <v>-0.05164702927543552</v>
       </c>
       <c r="I43">
-        <v>-0.2914007960210308</v>
+        <v>0.05995968024948716</v>
       </c>
       <c r="J43">
         <v>-0.2914007960210308</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>-0.2914007960210308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>42186</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F44">
-        <v>19.03749656677246</v>
+        <v>19.03749465942383</v>
       </c>
       <c r="G44">
         <v>2900</v>
@@ -1734,13 +1860,16 @@
         <v>-0.02658657547162713</v>
       </c>
       <c r="I44">
-        <v>-0.2715018974935994</v>
+        <v>0.05935530403417303</v>
       </c>
       <c r="J44">
         <v>-0.2715018974935994</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>-0.2715018974935994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>42217</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>20.8700008392334</v>
       </c>
       <c r="F45">
-        <v>17.50275611877441</v>
+        <v>17.50275802612305</v>
       </c>
       <c r="G45">
         <v>8400</v>
@@ -1766,13 +1895,16 @@
         <v>-0.08061673401763736</v>
       </c>
       <c r="I45">
-        <v>-0.3478124737739563</v>
+        <v>0.05986904658273196</v>
       </c>
       <c r="J45">
         <v>-0.3478124737739563</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>-0.3478124737739563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>42248</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>19.47999954223633</v>
       </c>
       <c r="F46">
-        <v>16.3370189666748</v>
+        <v>16.33702087402344</v>
       </c>
       <c r="G46">
         <v>3200</v>
@@ -1798,13 +1930,16 @@
         <v>-0.06660283857698823</v>
       </c>
       <c r="I46">
-        <v>-0.3538971877709788</v>
+        <v>0.05992973523118522</v>
       </c>
       <c r="J46">
         <v>-0.3538971877709788</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>-0.3538971877709788</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>42278</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>20.56999969482422</v>
       </c>
       <c r="F47">
-        <v>17.25115394592285</v>
+        <v>17.25115585327148</v>
       </c>
       <c r="G47">
         <v>5100</v>
@@ -1830,13 +1965,16 @@
         <v>0.05595483460995787</v>
       </c>
       <c r="I47">
-        <v>-0.2492700736786512</v>
+        <v>0.05993511212450648</v>
       </c>
       <c r="J47">
         <v>-0.2492700736786512</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>-0.2492700736786512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>42309</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>20.60000038146973</v>
       </c>
       <c r="F48">
-        <v>17.27631759643555</v>
+        <v>17.27631568908691</v>
       </c>
       <c r="G48">
         <v>1800</v>
@@ -1862,13 +2000,16 @@
         <v>0.001458468016071857</v>
       </c>
       <c r="I48">
-        <v>-0.1763294604979407</v>
+        <v>0.05927000491674457</v>
       </c>
       <c r="J48">
         <v>-0.1763294604979407</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>-0.1763294604979407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>42339</v>
       </c>
@@ -1894,13 +2035,16 @@
         <v>-0.08203885935739208</v>
       </c>
       <c r="I49">
-        <v>-0.1884119971414328</v>
+        <v>0.05973307730796619</v>
       </c>
       <c r="J49">
         <v>-0.1884119971414328</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>-0.1884119971414328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>42370</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>18.07999992370605</v>
       </c>
       <c r="F50">
-        <v>15.32507514953613</v>
+        <v>15.3250732421875</v>
       </c>
       <c r="G50">
         <v>29200</v>
@@ -1926,13 +2070,16 @@
         <v>-0.04389211689071715</v>
       </c>
       <c r="I50">
-        <v>-0.2213608760398316</v>
+        <v>0.0593588331118016</v>
       </c>
       <c r="J50">
         <v>-0.2213608760398316</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>-0.2213608760398316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>42401</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>18.32999992370605</v>
       </c>
       <c r="F51">
-        <v>15.53697872161865</v>
+        <v>15.53698062896729</v>
       </c>
       <c r="G51">
         <v>7800</v>
@@ -1958,13 +2105,16 @@
         <v>0.0138274336866675</v>
       </c>
       <c r="I51">
-        <v>-0.2394191023415988</v>
+        <v>0.05880490092378903</v>
       </c>
       <c r="J51">
         <v>-0.2394191023415988</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>-0.2394191023415988</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>42430</v>
       </c>
@@ -1990,13 +2140,16 @@
         <v>0.07037648231842031</v>
       </c>
       <c r="I52">
-        <v>-0.1349206095576667</v>
+        <v>0.05918288219837541</v>
       </c>
       <c r="J52">
         <v>-0.1349206095576667</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>-0.1349206095576667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>42461</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>21.30999946594238</v>
       </c>
       <c r="F53">
-        <v>18.06290626525879</v>
+        <v>18.06290435791016</v>
       </c>
       <c r="G53">
         <v>14700</v>
@@ -2022,13 +2175,16 @@
         <v>0.08613652163202534</v>
       </c>
       <c r="I53">
-        <v>-0.1675781582656777</v>
+        <v>0.05993189953182164</v>
       </c>
       <c r="J53">
         <v>-0.1675781582656777</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>-0.1675781582656777</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>42491</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>20.72999954223633</v>
       </c>
       <c r="F54">
-        <v>17.57127952575684</v>
+        <v>17.57128143310547</v>
       </c>
       <c r="G54">
         <v>10200</v>
@@ -2054,13 +2210,16 @@
         <v>-0.02721726598975327</v>
       </c>
       <c r="I54">
-        <v>-0.1569744036762574</v>
+        <v>0.05944256172623151</v>
       </c>
       <c r="J54">
         <v>-0.1569744036762574</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>-0.1569744036762574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>42522</v>
       </c>
@@ -2086,13 +2245,16 @@
         <v>-0.02267242275605907</v>
       </c>
       <c r="I55">
-        <v>-0.1312178175809127</v>
+        <v>0.05893209108277316</v>
       </c>
       <c r="J55">
         <v>-0.1312178175809127</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>-0.1312178175809127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>42552</v>
       </c>
@@ -2118,13 +2280,16 @@
         <v>-0.005923042343421558</v>
       </c>
       <c r="I56">
-        <v>-0.1127753871035341</v>
+        <v>0.0583747621130132</v>
       </c>
       <c r="J56">
         <v>-0.1127753871035341</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.1127753871035341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>42583</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>20.29999923706055</v>
       </c>
       <c r="F57">
-        <v>17.56125640869141</v>
+        <v>17.56125831604004</v>
       </c>
       <c r="G57">
         <v>10800</v>
@@ -2150,13 +2315,16 @@
         <v>0.007944381939472445</v>
       </c>
       <c r="I57">
-        <v>-0.02731200667233846</v>
+        <v>0.05785101576688521</v>
       </c>
       <c r="J57">
         <v>-0.02731200667233846</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.02731200667233846</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>42614</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>21.53000068664551</v>
       </c>
       <c r="F58">
-        <v>18.62531471252441</v>
+        <v>18.62531280517578</v>
       </c>
       <c r="G58">
         <v>14500</v>
@@ -2182,13 +2350,16 @@
         <v>0.06059120669026519</v>
       </c>
       <c r="I58">
-        <v>0.1052362008512571</v>
+        <v>0.05794779273557669</v>
       </c>
       <c r="J58">
         <v>0.1052362008512571</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>0.1052362008512571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>42644</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>21.35000038146973</v>
       </c>
       <c r="F59">
-        <v>18.4695987701416</v>
+        <v>18.46959495544434</v>
       </c>
       <c r="G59">
         <v>4500</v>
@@ -2214,13 +2385,16 @@
         <v>-0.008360441218537962</v>
       </c>
       <c r="I59">
-        <v>0.03791933389487467</v>
+        <v>0.05743465006632315</v>
       </c>
       <c r="J59">
         <v>0.03791933389487467</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>0.03791933389487467</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>42675</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>21.32999992370605</v>
       </c>
       <c r="F60">
-        <v>18.45229530334473</v>
+        <v>18.45229721069336</v>
       </c>
       <c r="G60">
         <v>26500</v>
@@ -2246,13 +2420,16 @@
         <v>-0.0009367895740662879</v>
       </c>
       <c r="I60">
-        <v>0.03543687032612786</v>
+        <v>0.05692875221357923</v>
       </c>
       <c r="J60">
         <v>0.03543687032612786</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>0.03543687032612786</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>42705</v>
       </c>
@@ -2278,13 +2455,16 @@
         <v>0.01969058029986948</v>
       </c>
       <c r="I61">
-        <v>0.1501850965364526</v>
+        <v>0.05650578107982551</v>
       </c>
       <c r="J61">
         <v>0.1501850965364526</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>0.1501850965364526</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>42736</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>22.95000076293945</v>
       </c>
       <c r="F62">
-        <v>20.06499671936035</v>
+        <v>20.06500053405762</v>
       </c>
       <c r="G62">
         <v>33400</v>
@@ -2310,13 +2490,16 @@
         <v>0.05517244887077943</v>
       </c>
       <c r="I62">
-        <v>0.2693584546340606</v>
+        <v>0.05650108057639141</v>
       </c>
       <c r="J62">
         <v>0.2693584546340606</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>0.2693584546340606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>42767</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>22.46999931335449</v>
       </c>
       <c r="F63">
-        <v>19.64533615112305</v>
+        <v>19.64533042907715</v>
       </c>
       <c r="G63">
         <v>33300</v>
@@ -2342,13 +2525,16 @@
         <v>-0.02091509514718992</v>
       </c>
       <c r="I63">
-        <v>0.2258592147779666</v>
+        <v>0.05608869457651873</v>
       </c>
       <c r="J63">
         <v>0.2258592147779666</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>0.2258592147779666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>42795</v>
       </c>
@@ -2374,13 +2560,16 @@
         <v>-0.02314190326236421</v>
       </c>
       <c r="I64">
-        <v>0.1187563620816385</v>
+        <v>0.05569860812494025</v>
       </c>
       <c r="J64">
         <v>0.1187563620816385</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>0.1187563620816385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>42826</v>
       </c>
@@ -2406,13 +2595,16 @@
         <v>0.005922512813124614</v>
       </c>
       <c r="I65">
-        <v>0.03613329315161584</v>
+        <v>0.0552550443374972</v>
       </c>
       <c r="J65">
         <v>0.03613329315161584</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>0.03613329315161584</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>42856</v>
       </c>
@@ -2438,13 +2630,16 @@
         <v>0.02626811257745265</v>
       </c>
       <c r="I66">
-        <v>0.0931018016302172</v>
+        <v>0.05492189315989331</v>
       </c>
       <c r="J66">
         <v>0.0931018016302172</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>0.0931018016302172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>42887</v>
       </c>
@@ -2470,13 +2665,16 @@
         <v>-0.0247131275248591</v>
       </c>
       <c r="I67">
-        <v>0.09081935497536975</v>
+        <v>0.05457223888966453</v>
       </c>
       <c r="J67">
         <v>0.09081935497536975</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>0.09081935497536975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>42917</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>24.61000061035156</v>
       </c>
       <c r="F68">
-        <v>21.96022987365723</v>
+        <v>21.96023178100586</v>
       </c>
       <c r="G68">
         <v>27900</v>
@@ -2502,13 +2700,16 @@
         <v>0.1135746690297077</v>
       </c>
       <c r="I68">
-        <v>0.221946442709458</v>
+        <v>0.05596041002772796</v>
       </c>
       <c r="J68">
         <v>0.221946442709458</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>0.221946442709458</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>42948</v>
       </c>
@@ -2534,13 +2735,16 @@
         <v>0.01991059565078013</v>
       </c>
       <c r="I69">
-        <v>0.2364532672319559</v>
+        <v>0.05558475530558955</v>
       </c>
       <c r="J69">
         <v>0.2364532672319559</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>0.2364532672319559</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>42979</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>26.04999923706055</v>
       </c>
       <c r="F70">
-        <v>23.24518013000488</v>
+        <v>23.24518394470215</v>
       </c>
       <c r="G70">
         <v>7400</v>
@@ -2566,13 +2770,16 @@
         <v>0.03784855940847565</v>
       </c>
       <c r="I70">
-        <v>0.209939545111983</v>
+        <v>0.05534981858967606</v>
       </c>
       <c r="J70">
         <v>0.209939545111983</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>0.209939545111983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>43009</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>26.07999992370605</v>
       </c>
       <c r="F71">
-        <v>23.27195358276367</v>
+        <v>23.2719554901123</v>
       </c>
       <c r="G71">
         <v>19000</v>
@@ -2598,13 +2805,16 @@
         <v>0.00115165787040894</v>
       </c>
       <c r="I71">
-        <v>0.2215456420479331</v>
+        <v>0.05494134026708763</v>
       </c>
       <c r="J71">
         <v>0.2215456420479331</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>0.2215456420479331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>43040</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>25.07999992370605</v>
       </c>
       <c r="F72">
-        <v>22.37961959838867</v>
+        <v>22.37962341308594</v>
       </c>
       <c r="G72">
         <v>10800</v>
@@ -2630,13 +2840,16 @@
         <v>-0.03834355839437809</v>
       </c>
       <c r="I72">
-        <v>0.1758087207413568</v>
+        <v>0.05474886514279536</v>
       </c>
       <c r="J72">
         <v>0.1758087207413568</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>0.1758087207413568</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>43070</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>25.79999923706055</v>
       </c>
       <c r="F73">
-        <v>23.1937313079834</v>
+        <v>23.19373321533203</v>
       </c>
       <c r="G73">
         <v>2200</v>
@@ -2662,13 +2875,16 @@
         <v>0.02870810668041246</v>
       </c>
       <c r="I73">
-        <v>0.1862068614740482</v>
+        <v>0.05445654219451811</v>
       </c>
       <c r="J73">
         <v>0.1862068614740482</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>0.1862068614740482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -2694,13 +2910,16 @@
         <v>0.05930235394920991</v>
       </c>
       <c r="I74">
-        <v>0.1908496302901912</v>
+        <v>0.05450228016246909</v>
       </c>
       <c r="J74">
         <v>0.1908496302901912</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>0.1908496302901912</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>43132</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>26.79999923706055</v>
       </c>
       <c r="F75">
-        <v>24.09271430969238</v>
+        <v>24.09271621704102</v>
       </c>
       <c r="G75">
         <v>2900</v>
@@ -2726,13 +2945,16 @@
         <v>-0.01939263403311553</v>
       </c>
       <c r="I75">
-        <v>0.1927013821105292</v>
+        <v>0.05418084188121864</v>
       </c>
       <c r="J75">
         <v>0.1927013821105292</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>0.1927013821105292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>43160</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>27.11000061035156</v>
       </c>
       <c r="F76">
-        <v>24.37140083312988</v>
+        <v>24.37140274047852</v>
       </c>
       <c r="G76">
         <v>11700</v>
@@ -2758,13 +2980,16 @@
         <v>0.01156721575060082</v>
       </c>
       <c r="I76">
-        <v>0.2350797115289531</v>
+        <v>0.05382044878963328</v>
       </c>
       <c r="J76">
         <v>0.2350797115289531</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0.2350797115289531</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>43191</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>28.02000045776367</v>
       </c>
       <c r="F77">
-        <v>25.18947410583496</v>
+        <v>25.18947219848633</v>
       </c>
       <c r="G77">
         <v>19200</v>
@@ -2790,13 +3015,16 @@
         <v>0.0335669430809471</v>
       </c>
       <c r="I77">
-        <v>0.2690217642473889</v>
+        <v>0.05358025778878035</v>
       </c>
       <c r="J77">
         <v>0.2690217642473889</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>0.2690217642473889</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>43221</v>
       </c>
@@ -2822,13 +3050,16 @@
         <v>-0.003925789027640181</v>
       </c>
       <c r="I78">
-        <v>0.2316857914983428</v>
+        <v>0.05322672527519089</v>
       </c>
       <c r="J78">
         <v>0.2316857914983428</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>0.2316857914983428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>43252</v>
       </c>
@@ -2854,13 +3085,16 @@
         <v>-0.01218201914893302</v>
       </c>
       <c r="I79">
-        <v>0.2475112768749517</v>
+        <v>0.05290102319404841</v>
       </c>
       <c r="J79">
         <v>0.2475112768749517</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>0.2475112768749517</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>43282</v>
       </c>
@@ -2886,13 +3120,16 @@
         <v>0.0192238190972851</v>
       </c>
       <c r="I80">
-        <v>0.1418122586169375</v>
+        <v>0.05259222548043078</v>
       </c>
       <c r="J80">
         <v>0.1418122586169375</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>0.1418122586169375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>43313</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>27.57999992370605</v>
       </c>
       <c r="F81">
-        <v>25.23576927185059</v>
+        <v>25.23576736450195</v>
       </c>
       <c r="G81">
         <v>7900</v>
@@ -2918,13 +3155,16 @@
         <v>-0.01850535411759568</v>
       </c>
       <c r="I81">
-        <v>0.09880476113726311</v>
+        <v>0.05230640755976811</v>
       </c>
       <c r="J81">
         <v>0.09880476113726311</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>0.09880476113726311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>43344</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>29.21999931335449</v>
       </c>
       <c r="F82">
-        <v>26.73637008666992</v>
+        <v>26.73637390136719</v>
       </c>
       <c r="G82">
         <v>14200</v>
@@ -2950,13 +3190,16 @@
         <v>0.05946335729460239</v>
       </c>
       <c r="I82">
-        <v>0.1216890659936789</v>
+        <v>0.05236937800513852</v>
       </c>
       <c r="J82">
         <v>0.1216890659936789</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>0.1216890659936789</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>43374</v>
       </c>
@@ -2982,13 +3225,16 @@
         <v>-0.09000681802085486</v>
       </c>
       <c r="I83">
-        <v>0.0195552235572769</v>
+        <v>0.05305184777664931</v>
       </c>
       <c r="J83">
         <v>0.0195552235572769</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>0.0195552235572769</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>43405</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>25.20000076293945</v>
       </c>
       <c r="F84">
-        <v>23.05805969238281</v>
+        <v>23.05806350708008</v>
       </c>
       <c r="G84">
         <v>22600</v>
@@ -3014,13 +3260,16 @@
         <v>-0.05227526820879524</v>
       </c>
       <c r="I84">
-        <v>0.004784722472027214</v>
+        <v>0.05305807947499482</v>
       </c>
       <c r="J84">
         <v>0.004784722472027214</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>0.004784722472027214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>43435</v>
       </c>
@@ -3046,13 +3295,16 @@
         <v>-0.08492068381776707</v>
       </c>
       <c r="I85">
-        <v>-0.1062015446567253</v>
+        <v>0.05356932169203033</v>
       </c>
       <c r="J85">
         <v>-0.1062015446567253</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.1062015446567253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>43466</v>
       </c>
@@ -3078,13 +3330,16 @@
         <v>0.07979185581965909</v>
       </c>
       <c r="I86">
-        <v>-0.08891329352211219</v>
+        <v>0.05395415142716723</v>
       </c>
       <c r="J86">
         <v>-0.08891329352211219</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.08891329352211219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>43497</v>
       </c>
@@ -3110,13 +3365,16 @@
         <v>0.01566270293059913</v>
       </c>
       <c r="I87">
-        <v>-0.0563432225567041</v>
+        <v>0.05365603677951473</v>
       </c>
       <c r="J87">
         <v>-0.0563432225567041</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.0563432225567041</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>43525</v>
       </c>
@@ -3142,13 +3400,16 @@
         <v>-0.008303716260142702</v>
       </c>
       <c r="I88">
-        <v>-0.07488014167990764</v>
+        <v>0.05334899819821674</v>
       </c>
       <c r="J88">
         <v>-0.07488014167990764</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.07488014167990764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>43556</v>
       </c>
@@ -3174,13 +3435,16 @@
         <v>0.02312599383853375</v>
       </c>
       <c r="I89">
-        <v>-0.08422557358301763</v>
+        <v>0.05309126510373136</v>
       </c>
       <c r="J89">
         <v>-0.08422557358301763</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.08422557358301763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>43586</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>24.18000030517578</v>
       </c>
       <c r="F90">
-        <v>22.25893020629883</v>
+        <v>22.2589282989502</v>
       </c>
       <c r="G90">
         <v>4800</v>
@@ -3206,13 +3470,16 @@
         <v>-0.05767730128749748</v>
       </c>
       <c r="I90">
-        <v>-0.1336438395782429</v>
+        <v>0.05315694192499784</v>
       </c>
       <c r="J90">
         <v>-0.1336438395782429</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>-0.1336438395782429</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>43617</v>
       </c>
@@ -3238,13 +3505,16 @@
         <v>0.00827125116073768</v>
       </c>
       <c r="I91">
-        <v>-0.1157054976194463</v>
+        <v>0.05286043792939608</v>
       </c>
       <c r="J91">
         <v>-0.1157054976194463</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>-0.1157054976194463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>43647</v>
       </c>
@@ -3270,13 +3540,16 @@
         <v>-0.04470870725021736</v>
       </c>
       <c r="I92">
-        <v>-0.1711743558948238</v>
+        <v>0.0527792222487392</v>
       </c>
       <c r="J92">
         <v>-0.1711743558948238</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>-0.1711743558948238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>43678</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>22.52000045776367</v>
       </c>
       <c r="F93">
-        <v>21.30529022216797</v>
+        <v>21.30528831481934</v>
       </c>
       <c r="G93">
         <v>19100</v>
@@ -3302,13 +3575,16 @@
         <v>-0.03306141809768315</v>
       </c>
       <c r="I93">
-        <v>-0.1834662610565536</v>
+        <v>0.05260020125867475</v>
       </c>
       <c r="J93">
         <v>-0.1834662610565536</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>-0.1834662610565536</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>43709</v>
       </c>
@@ -3334,13 +3610,16 @@
         <v>0.03374778922883315</v>
       </c>
       <c r="I94">
-        <v>-0.2032853787232709</v>
+        <v>0.05243042159361536</v>
       </c>
       <c r="J94">
         <v>-0.2032853787232709</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>-0.2032853787232709</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>43739</v>
       </c>
@@ -3366,13 +3645,16 @@
         <v>0.0008590442364768691</v>
       </c>
       <c r="I95">
-        <v>-0.1237307595580116</v>
+        <v>0.05214475323847881</v>
       </c>
       <c r="J95">
         <v>-0.1237307595580116</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>-0.1237307595580116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>43770</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>23.3799991607666</v>
       </c>
       <c r="F96">
-        <v>22.11889839172363</v>
+        <v>22.1189022064209</v>
       </c>
       <c r="G96">
         <v>8400</v>
@@ -3398,13 +3680,16 @@
         <v>0.003433473232857809</v>
       </c>
       <c r="I96">
-        <v>-0.07222228361395322</v>
+        <v>0.05186477600042411</v>
       </c>
       <c r="J96">
         <v>-0.07222228361395322</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>-0.07222228361395322</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>43800</v>
       </c>
@@ -3430,13 +3715,16 @@
         <v>0.07613347949269755</v>
       </c>
       <c r="I97">
-        <v>0.09106680095857089</v>
+        <v>0.0521738407127408</v>
       </c>
       <c r="J97">
         <v>0.09106680095857089</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.09106680095857089</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>43831</v>
       </c>
@@ -3462,13 +3750,16 @@
         <v>-0.07193956585530559</v>
       </c>
       <c r="I98">
-        <v>-0.06224896629745558</v>
+        <v>0.05242900357327746</v>
       </c>
       <c r="J98">
         <v>-0.06224896629745558</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>-0.06224896629745558</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>43862</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>21.02000045776367</v>
       </c>
       <c r="F99">
-        <v>19.99562835693359</v>
+        <v>19.99562644958496</v>
       </c>
       <c r="G99">
         <v>15700</v>
@@ -3494,13 +3785,16 @@
         <v>-0.0997858623400758</v>
       </c>
       <c r="I99">
-        <v>-0.1688414512923965</v>
+        <v>0.05313392737058843</v>
       </c>
       <c r="J99">
         <v>-0.1688414512923965</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>-0.1688414512923965</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>43891</v>
       </c>
@@ -3526,13 +3820,16 @@
         <v>-0.2526165701226456</v>
       </c>
       <c r="I100">
-        <v>-0.3736044622832073</v>
+        <v>0.05865975706466892</v>
       </c>
       <c r="J100">
         <v>-0.3736044622832073</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>-0.3736044622832073</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>43922</v>
       </c>
@@ -3558,13 +3855,16 @@
         <v>0.119669007630548</v>
       </c>
       <c r="I101">
-        <v>-0.3144972619958181</v>
+        <v>0.05965621862563588</v>
       </c>
       <c r="J101">
         <v>-0.3144972619958181</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>-0.3144972619958181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>43952</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>19.02000045776367</v>
       </c>
       <c r="F102">
-        <v>18.09309577941895</v>
+        <v>18.09309387207031</v>
       </c>
       <c r="G102">
         <v>2300</v>
@@ -3590,13 +3890,16 @@
         <v>0.08129620766179446</v>
       </c>
       <c r="I102">
-        <v>-0.2133994947182694</v>
+        <v>0.05993808012024257</v>
       </c>
       <c r="J102">
         <v>-0.2133994947182694</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>-0.2133994947182694</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>43983</v>
       </c>
@@ -3622,13 +3925,16 @@
         <v>-0.002103097506026441</v>
       </c>
       <c r="I103">
-        <v>-0.2214930190489997</v>
+        <v>0.05963768633130931</v>
       </c>
       <c r="J103">
         <v>-0.2214930190489997</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>-0.2214930190489997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>44013</v>
       </c>
@@ -3654,13 +3960,16 @@
         <v>0.08008432531208465</v>
       </c>
       <c r="I104">
-        <v>-0.1197939375634486</v>
+        <v>0.05988684987219418</v>
       </c>
       <c r="J104">
         <v>-0.1197939375634486</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>-0.1197939375634486</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>44044</v>
       </c>
@@ -3686,13 +3995,16 @@
         <v>0.08439022157250387</v>
       </c>
       <c r="I105">
-        <v>-0.01287748266574151</v>
+        <v>0.06017726526488654</v>
       </c>
       <c r="J105">
         <v>-0.01287748266574151</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>-0.01287748266574151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>44075</v>
       </c>
@@ -3718,13 +4030,16 @@
         <v>-0.07152497459871465</v>
       </c>
       <c r="I106">
-        <v>-0.113402114223798</v>
+        <v>0.06029700258070508</v>
       </c>
       <c r="J106">
         <v>-0.113402114223798</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>-0.113402114223798</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>44105</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>19.14999961853027</v>
       </c>
       <c r="F107">
-        <v>18.49129676818848</v>
+        <v>18.49129867553711</v>
       </c>
       <c r="G107">
         <v>4900</v>
@@ -3750,13 +4065,16 @@
         <v>-0.07218991352613324</v>
       </c>
       <c r="I107">
-        <v>-0.1781115774428593</v>
+        <v>0.06041395522511168</v>
       </c>
       <c r="J107">
         <v>-0.1781115774428593</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>-0.1781115774428593</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>44136</v>
       </c>
@@ -3782,13 +4100,16 @@
         <v>0.2229765296513038</v>
       </c>
       <c r="I108">
-        <v>0.001710903206295633</v>
+        <v>0.06394310871350396</v>
       </c>
       <c r="J108">
         <v>0.001710903206295633</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.001710903206295633</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>44166</v>
       </c>
@@ -3814,13 +4135,16 @@
         <v>0.07130657860177991</v>
       </c>
       <c r="I109">
-        <v>-0.002782181846134546</v>
+        <v>0.06400243846953771</v>
       </c>
       <c r="J109">
         <v>-0.002782181846134546</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>-0.002782181846134546</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>44197</v>
       </c>
@@ -3846,13 +4170,16 @@
         <v>-0.002391369692207657</v>
       </c>
       <c r="I110">
-        <v>0.07194862003124447</v>
+        <v>0.06370386522448025</v>
       </c>
       <c r="J110">
         <v>0.07194862003124447</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.07194862003124447</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>44228</v>
       </c>
@@ -3878,13 +4205,16 @@
         <v>0.04075103964976101</v>
       </c>
       <c r="I111">
-        <v>0.2392958453737359</v>
+        <v>0.06351879695197515</v>
       </c>
       <c r="J111">
         <v>0.2392958453737359</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.2392958453737359</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>44256</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>27.71999931335449</v>
       </c>
       <c r="F112">
-        <v>27.11477851867676</v>
+        <v>27.11477661132812</v>
       </c>
       <c r="G112">
         <v>1600</v>
@@ -3910,13 +4240,16 @@
         <v>0.06410749041090513</v>
       </c>
       <c r="I112">
-        <v>0.7644811741594448</v>
+        <v>0.06350343469921474</v>
       </c>
       <c r="J112">
         <v>0.7644811741594448</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.7644811741594448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>44287</v>
       </c>
@@ -3942,13 +4275,16 @@
         <v>0.03499282989649322</v>
       </c>
       <c r="I113">
-        <v>0.631040380055748</v>
+        <v>0.06328900098228586</v>
       </c>
       <c r="J113">
         <v>0.631040380055748</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.631040380055748</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>44317</v>
       </c>
@@ -3974,13 +4310,16 @@
         <v>0.02962706049659003</v>
       </c>
       <c r="I114">
-        <v>0.5531020086526639</v>
+        <v>0.06305402019699526</v>
       </c>
       <c r="J114">
         <v>0.5531020086526639</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.5531020086526639</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>44348</v>
       </c>
@@ -4006,13 +4345,16 @@
         <v>-0.03960731347435231</v>
       </c>
       <c r="I115">
-        <v>0.4947313763681307</v>
+        <v>0.06290032433909457</v>
       </c>
       <c r="J115">
         <v>0.4947313763681307</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.4947313763681307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>44378</v>
       </c>
@@ -4038,13 +4380,16 @@
         <v>-0.0123369887598207</v>
       </c>
       <c r="I116">
-        <v>0.366829290622618</v>
+        <v>0.06263726367874306</v>
       </c>
       <c r="J116">
         <v>0.366829290622618</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.366829290622618</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>44409</v>
       </c>
@@ -4070,13 +4415,16 @@
         <v>0.02712349095166622</v>
       </c>
       <c r="I117">
-        <v>0.2946469311420532</v>
+        <v>0.06240388852493646</v>
       </c>
       <c r="J117">
         <v>0.2946469311420532</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.2946469311420532</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>44440</v>
       </c>
@@ -4102,13 +4450,16 @@
         <v>0.002779705413390676</v>
       </c>
       <c r="I118">
-        <v>0.3982558848730244</v>
+        <v>0.06213197489688844</v>
       </c>
       <c r="J118">
         <v>0.3982558848730244</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.3982558848730244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>44470</v>
       </c>
@@ -4134,13 +4485,16 @@
         <v>0.07241857617418912</v>
       </c>
       <c r="I119">
-        <v>0.6161880615909281</v>
+        <v>0.06219747960526702</v>
       </c>
       <c r="J119">
         <v>0.6161880615909281</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.6161880615909281</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>44501</v>
       </c>
@@ -4166,42 +4520,83 @@
         <v>-0.08820682979930505</v>
       </c>
       <c r="I120">
-        <v>0.2049529983528555</v>
+        <v>0.06250259093147241</v>
       </c>
       <c r="J120">
         <v>0.2049529983528555</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.2049529983528555</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>44531</v>
       </c>
       <c r="B121">
-        <v>29.30999946594238</v>
+        <v>28.96999931335449</v>
       </c>
       <c r="C121">
-        <v>29.29999923706055</v>
+        <v>29.25</v>
       </c>
       <c r="D121">
-        <v>29.29999923706055</v>
+        <v>28.96999931335449</v>
       </c>
       <c r="E121">
-        <v>29.29999923706055</v>
+        <v>29.1299991607666</v>
       </c>
       <c r="F121">
-        <v>29.29999923706055</v>
+        <v>29.1299991607666</v>
       </c>
       <c r="G121">
-        <v>693</v>
+        <v>17500</v>
       </c>
       <c r="H121">
-        <v>0.03827072820639543</v>
+        <v>0.03224662897073394</v>
       </c>
       <c r="I121">
-        <v>0.167795897125111</v>
+        <v>0.06229641336808078</v>
       </c>
       <c r="J121">
-        <v>0.167795897125111</v>
+        <v>0.1610202863136296</v>
+      </c>
+      <c r="K121">
+        <v>0.1610202863136296</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B122">
+        <v>29.28000068664551</v>
+      </c>
+      <c r="C122">
+        <v>29.3700008392334</v>
+      </c>
+      <c r="D122">
+        <v>29.28000068664551</v>
+      </c>
+      <c r="E122">
+        <v>29.34000015258789</v>
+      </c>
+      <c r="F122">
+        <v>29.34000015258789</v>
+      </c>
+      <c r="G122">
+        <v>62243</v>
+      </c>
+      <c r="H122">
+        <v>0.00720909707763151</v>
+      </c>
+      <c r="I122">
+        <v>0.06203537655648021</v>
+      </c>
+      <c r="J122">
+        <v>0.1721933418979864</v>
+      </c>
+      <c r="K122">
+        <v>0.1721933418979864</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/ENOR.xlsx
+++ b/etf_dfs/ENOR.xlsx
@@ -508,7 +508,7 @@
         <v>26.1299991607666</v>
       </c>
       <c r="F2" t="n">
-        <v>20.20322799682617</v>
+        <v>20.20322227478027</v>
       </c>
       <c r="G2" t="n">
         <v>23300</v>
@@ -535,7 +535,7 @@
         <v>29.6200008392334</v>
       </c>
       <c r="F3" t="n">
-        <v>22.90162658691406</v>
+        <v>22.9016284942627</v>
       </c>
       <c r="G3" t="n">
         <v>14800</v>
@@ -564,7 +564,7 @@
         <v>28.76000022888184</v>
       </c>
       <c r="F4" t="n">
-        <v>22.2366943359375</v>
+        <v>22.23669624328613</v>
       </c>
       <c r="G4" t="n">
         <v>15700</v>
@@ -626,7 +626,7 @@
         <v>23.76000022888184</v>
       </c>
       <c r="F6" t="n">
-        <v>18.37078666687012</v>
+        <v>18.37078857421875</v>
       </c>
       <c r="G6" t="n">
         <v>1200</v>
@@ -657,7 +657,7 @@
         <v>24.96999931335449</v>
       </c>
       <c r="F7" t="n">
-        <v>19.81221008300781</v>
+        <v>19.81221199035645</v>
       </c>
       <c r="G7" t="n">
         <v>2500</v>
@@ -719,7 +719,7 @@
         <v>26.98999977111816</v>
       </c>
       <c r="F9" t="n">
-        <v>21.41496276855469</v>
+        <v>21.41496467590332</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>28.21999931335449</v>
       </c>
       <c r="F10" t="n">
-        <v>22.39089393615723</v>
+        <v>22.39089775085449</v>
       </c>
       <c r="G10" t="n">
         <v>2100</v>
@@ -781,7 +781,7 @@
         <v>28.20000076293945</v>
       </c>
       <c r="F11" t="n">
-        <v>22.37502670288086</v>
+        <v>22.37502861022949</v>
       </c>
       <c r="G11" t="n">
         <v>10600</v>
@@ -843,7 +843,7 @@
         <v>29.10000038146973</v>
       </c>
       <c r="F13" t="n">
-        <v>23.0891227722168</v>
+        <v>23.0891284942627</v>
       </c>
       <c r="G13" t="n">
         <v>3500</v>
@@ -909,7 +909,7 @@
         <v>29.88999938964844</v>
       </c>
       <c r="F15" t="n">
-        <v>23.71594047546387</v>
+        <v>23.71593856811523</v>
       </c>
       <c r="G15" t="n">
         <v>214200</v>
@@ -944,7 +944,7 @@
         <v>29.40999984741211</v>
       </c>
       <c r="F16" t="n">
-        <v>23.33509254455566</v>
+        <v>23.3350887298584</v>
       </c>
       <c r="G16" t="n">
         <v>6800</v>
@@ -979,7 +979,7 @@
         <v>29.44000053405762</v>
       </c>
       <c r="F17" t="n">
-        <v>23.3588981628418</v>
+        <v>23.35889625549316</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>29.64999961853027</v>
       </c>
       <c r="F18" t="n">
-        <v>23.52551651000977</v>
+        <v>23.52551460266113</v>
       </c>
       <c r="G18" t="n">
         <v>6000</v>
@@ -1049,7 +1049,7 @@
         <v>26.96999931335449</v>
       </c>
       <c r="F19" t="n">
-        <v>21.39909362792969</v>
+        <v>21.39909553527832</v>
       </c>
       <c r="G19" t="n">
         <v>7600</v>
@@ -1119,7 +1119,7 @@
         <v>28.22999954223633</v>
       </c>
       <c r="F21" t="n">
-        <v>22.39883422851562</v>
+        <v>22.39883041381836</v>
       </c>
       <c r="G21" t="n">
         <v>400</v>
@@ -1154,7 +1154,7 @@
         <v>29.14999961853027</v>
       </c>
       <c r="F22" t="n">
-        <v>23.12879753112793</v>
+        <v>23.12879943847656</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>31.19000053405762</v>
       </c>
       <c r="F23" t="n">
-        <v>24.74740982055664</v>
+        <v>24.74741744995117</v>
       </c>
       <c r="G23" t="n">
         <v>2400</v>
@@ -1224,7 +1224,7 @@
         <v>30.71999931335449</v>
       </c>
       <c r="F24" t="n">
-        <v>24.37449836730957</v>
+        <v>24.3745002746582</v>
       </c>
       <c r="G24" t="n">
         <v>1200</v>
@@ -1259,7 +1259,7 @@
         <v>30.90999984741211</v>
       </c>
       <c r="F25" t="n">
-        <v>24.63617706298828</v>
+        <v>24.63618278503418</v>
       </c>
       <c r="G25" t="n">
         <v>3500</v>
@@ -1294,7 +1294,7 @@
         <v>29.29000091552734</v>
       </c>
       <c r="F26" t="n">
-        <v>23.34499740600586</v>
+        <v>23.34499549865723</v>
       </c>
       <c r="G26" t="n">
         <v>9500</v>
@@ -1364,7 +1364,7 @@
         <v>31.45000076293945</v>
       </c>
       <c r="F28" t="n">
-        <v>25.06657600402832</v>
+        <v>25.06657791137695</v>
       </c>
       <c r="G28" t="n">
         <v>1300</v>
@@ -1399,7 +1399,7 @@
         <v>32.93000030517578</v>
       </c>
       <c r="F29" t="n">
-        <v>26.24617958068848</v>
+        <v>26.24618530273438</v>
       </c>
       <c r="G29" t="n">
         <v>11800</v>
@@ -1434,7 +1434,7 @@
         <v>33.90999984741211</v>
       </c>
       <c r="F30" t="n">
-        <v>27.02727317810059</v>
+        <v>27.02727127075195</v>
       </c>
       <c r="G30" t="n">
         <v>6600</v>
@@ -1469,7 +1469,7 @@
         <v>32.90999984741211</v>
       </c>
       <c r="F31" t="n">
-        <v>26.92295265197754</v>
+        <v>26.92295074462891</v>
       </c>
       <c r="G31" t="n">
         <v>3500</v>
@@ -1504,7 +1504,7 @@
         <v>31.15999984741211</v>
       </c>
       <c r="F32" t="n">
-        <v>25.49131202697754</v>
+        <v>25.49131393432617</v>
       </c>
       <c r="G32" t="n">
         <v>24200</v>
@@ -1539,7 +1539,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="n">
-        <v>26.17849922180176</v>
+        <v>26.17849731445312</v>
       </c>
       <c r="G33" t="n">
         <v>28200</v>
@@ -1574,7 +1574,7 @@
         <v>30.14999961853027</v>
       </c>
       <c r="F34" t="n">
-        <v>24.66505432128906</v>
+        <v>24.66505241394043</v>
       </c>
       <c r="G34" t="n">
         <v>31900</v>
@@ -1644,7 +1644,7 @@
         <v>25.01000022888184</v>
       </c>
       <c r="F36" t="n">
-        <v>20.46013069152832</v>
+        <v>20.46012878417969</v>
       </c>
       <c r="G36" t="n">
         <v>20200</v>
@@ -1679,7 +1679,7 @@
         <v>23.29999923706055</v>
       </c>
       <c r="F37" t="n">
-        <v>19.21019744873047</v>
+        <v>19.21019554138184</v>
       </c>
       <c r="G37" t="n">
         <v>12700</v>
@@ -1714,7 +1714,7 @@
         <v>23.21999931335449</v>
       </c>
       <c r="F38" t="n">
-        <v>19.14424133300781</v>
+        <v>19.14423561096191</v>
       </c>
       <c r="G38" t="n">
         <v>26700</v>
@@ -1749,7 +1749,7 @@
         <v>24.10000038146973</v>
       </c>
       <c r="F39" t="n">
-        <v>19.86977386474609</v>
+        <v>19.86977577209473</v>
       </c>
       <c r="G39" t="n">
         <v>21700</v>
@@ -1784,7 +1784,7 @@
         <v>22.68000030517578</v>
       </c>
       <c r="F40" t="n">
-        <v>18.69902229309082</v>
+        <v>18.69902420043945</v>
       </c>
       <c r="G40" t="n">
         <v>12700</v>
@@ -1819,7 +1819,7 @@
         <v>25.60000038146973</v>
       </c>
       <c r="F41" t="n">
-        <v>21.10648345947266</v>
+        <v>21.10647964477539</v>
       </c>
       <c r="G41" t="n">
         <v>47400</v>
@@ -1854,7 +1854,7 @@
         <v>24.59000015258789</v>
       </c>
       <c r="F42" t="n">
-        <v>20.27376937866211</v>
+        <v>20.27376365661621</v>
       </c>
       <c r="G42" t="n">
         <v>14300</v>
@@ -1889,7 +1889,7 @@
         <v>23.31999969482422</v>
       </c>
       <c r="F43" t="n">
-        <v>19.55746078491211</v>
+        <v>19.55746269226074</v>
       </c>
       <c r="G43" t="n">
         <v>7400</v>
@@ -1924,7 +1924,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F44" t="n">
-        <v>19.0374927520752</v>
+        <v>19.03749465942383</v>
       </c>
       <c r="G44" t="n">
         <v>2900</v>
@@ -1959,7 +1959,7 @@
         <v>20.8700008392334</v>
       </c>
       <c r="F45" t="n">
-        <v>17.50275230407715</v>
+        <v>17.50275611877441</v>
       </c>
       <c r="G45" t="n">
         <v>8400</v>
@@ -1994,7 +1994,7 @@
         <v>19.47999954223633</v>
       </c>
       <c r="F46" t="n">
-        <v>16.33702278137207</v>
+        <v>16.33702087402344</v>
       </c>
       <c r="G46" t="n">
         <v>3200</v>
@@ -2029,7 +2029,7 @@
         <v>20.56999969482422</v>
       </c>
       <c r="F47" t="n">
-        <v>17.25115394592285</v>
+        <v>17.25115776062012</v>
       </c>
       <c r="G47" t="n">
         <v>5100</v>
@@ -2134,7 +2134,7 @@
         <v>18.07999992370605</v>
       </c>
       <c r="F50" t="n">
-        <v>15.32507419586182</v>
+        <v>15.32507228851318</v>
       </c>
       <c r="G50" t="n">
         <v>29200</v>
@@ -2169,7 +2169,7 @@
         <v>18.32999992370605</v>
       </c>
       <c r="F51" t="n">
-        <v>15.53698253631592</v>
+        <v>15.53697967529297</v>
       </c>
       <c r="G51" t="n">
         <v>7800</v>
@@ -2309,7 +2309,7 @@
         <v>20.26000022888184</v>
       </c>
       <c r="F55" t="n">
-        <v>17.52665138244629</v>
+        <v>17.52665328979492</v>
       </c>
       <c r="G55" t="n">
         <v>75800</v>
@@ -2379,7 +2379,7 @@
         <v>20.29999923706055</v>
       </c>
       <c r="F57" t="n">
-        <v>17.56125640869141</v>
+        <v>17.56125450134277</v>
       </c>
       <c r="G57" t="n">
         <v>10800</v>
@@ -2414,7 +2414,7 @@
         <v>21.53000068664551</v>
       </c>
       <c r="F58" t="n">
-        <v>18.62531471252441</v>
+        <v>18.62531280517578</v>
       </c>
       <c r="G58" t="n">
         <v>14500</v>
@@ -2449,7 +2449,7 @@
         <v>21.35000038146973</v>
       </c>
       <c r="F59" t="n">
-        <v>18.4695987701416</v>
+        <v>18.46959495544434</v>
       </c>
       <c r="G59" t="n">
         <v>4500</v>
@@ -2484,7 +2484,7 @@
         <v>21.32999992370605</v>
       </c>
       <c r="F60" t="n">
-        <v>18.45229721069336</v>
+        <v>18.45229530334473</v>
       </c>
       <c r="G60" t="n">
         <v>26500</v>
@@ -2519,7 +2519,7 @@
         <v>21.75</v>
       </c>
       <c r="F61" t="n">
-        <v>19.01584434509277</v>
+        <v>19.01584625244141</v>
       </c>
       <c r="G61" t="n">
         <v>21000</v>
@@ -2554,7 +2554,7 @@
         <v>22.95000076293945</v>
       </c>
       <c r="F62" t="n">
-        <v>20.06500053405762</v>
+        <v>20.06499290466309</v>
       </c>
       <c r="G62" t="n">
         <v>33400</v>
@@ -2624,7 +2624,7 @@
         <v>21.95000076293945</v>
       </c>
       <c r="F64" t="n">
-        <v>19.19070625305176</v>
+        <v>19.19070243835449</v>
       </c>
       <c r="G64" t="n">
         <v>21800</v>
@@ -2694,7 +2694,7 @@
         <v>22.65999984741211</v>
       </c>
       <c r="F66" t="n">
-        <v>19.81144905090332</v>
+        <v>19.81145095825195</v>
       </c>
       <c r="G66" t="n">
         <v>171700</v>
@@ -2729,7 +2729,7 @@
         <v>22.10000038146973</v>
       </c>
       <c r="F67" t="n">
-        <v>19.72047805786133</v>
+        <v>19.72047996520996</v>
       </c>
       <c r="G67" t="n">
         <v>1500</v>
@@ -2764,7 +2764,7 @@
         <v>24.61000061035156</v>
       </c>
       <c r="F68" t="n">
-        <v>21.96022987365723</v>
+        <v>21.96023178100586</v>
       </c>
       <c r="G68" t="n">
         <v>27900</v>
@@ -2799,7 +2799,7 @@
         <v>25.10000038146973</v>
       </c>
       <c r="F69" t="n">
-        <v>22.39747047424316</v>
+        <v>22.39747428894043</v>
       </c>
       <c r="G69" t="n">
         <v>40500</v>
@@ -2834,7 +2834,7 @@
         <v>26.04999923706055</v>
       </c>
       <c r="F70" t="n">
-        <v>23.24518013000488</v>
+        <v>23.24518585205078</v>
       </c>
       <c r="G70" t="n">
         <v>7400</v>
@@ -2869,7 +2869,7 @@
         <v>26.07999992370605</v>
       </c>
       <c r="F71" t="n">
-        <v>23.27194976806641</v>
+        <v>23.2719554901123</v>
       </c>
       <c r="G71" t="n">
         <v>19000</v>
@@ -2904,7 +2904,7 @@
         <v>25.07999992370605</v>
       </c>
       <c r="F72" t="n">
-        <v>22.37962341308594</v>
+        <v>22.3796215057373</v>
       </c>
       <c r="G72" t="n">
         <v>10800</v>
@@ -2974,7 +2974,7 @@
         <v>27.32999992370605</v>
       </c>
       <c r="F74" t="n">
-        <v>24.56917762756348</v>
+        <v>24.56917572021484</v>
       </c>
       <c r="G74" t="n">
         <v>5300</v>
@@ -3044,7 +3044,7 @@
         <v>27.11000061035156</v>
       </c>
       <c r="F76" t="n">
-        <v>24.37139892578125</v>
+        <v>24.37140083312988</v>
       </c>
       <c r="G76" t="n">
         <v>11700</v>
@@ -3079,7 +3079,7 @@
         <v>28.02000045776367</v>
       </c>
       <c r="F77" t="n">
-        <v>25.18947601318359</v>
+        <v>25.18947410583496</v>
       </c>
       <c r="G77" t="n">
         <v>19200</v>
@@ -3114,7 +3114,7 @@
         <v>27.90999984741211</v>
       </c>
       <c r="F78" t="n">
-        <v>25.09058570861816</v>
+        <v>25.0905876159668</v>
       </c>
       <c r="G78" t="n">
         <v>7600</v>
@@ -3219,7 +3219,7 @@
         <v>27.57999992370605</v>
       </c>
       <c r="F81" t="n">
-        <v>25.23576545715332</v>
+        <v>25.23576927185059</v>
       </c>
       <c r="G81" t="n">
         <v>7900</v>
@@ -3359,7 +3359,7 @@
         <v>23.05999946594238</v>
       </c>
       <c r="F85" t="n">
-        <v>21.2279109954834</v>
+        <v>21.22791290283203</v>
       </c>
       <c r="G85" t="n">
         <v>6100</v>
@@ -3394,7 +3394,7 @@
         <v>24.89999961853027</v>
       </c>
       <c r="F86" t="n">
-        <v>22.92172431945801</v>
+        <v>22.92172622680664</v>
       </c>
       <c r="G86" t="n">
         <v>1300</v>
@@ -3464,7 +3464,7 @@
         <v>25.07999992370605</v>
       </c>
       <c r="F88" t="n">
-        <v>23.08742332458496</v>
+        <v>23.08742523193359</v>
       </c>
       <c r="G88" t="n">
         <v>4400</v>
@@ -3499,7 +3499,7 @@
         <v>25.65999984741211</v>
       </c>
       <c r="F89" t="n">
-        <v>23.62134552001953</v>
+        <v>23.6213436126709</v>
       </c>
       <c r="G89" t="n">
         <v>6400</v>
@@ -3534,7 +3534,7 @@
         <v>24.18000030517578</v>
       </c>
       <c r="F90" t="n">
-        <v>22.25893020629883</v>
+        <v>22.2589282989502</v>
       </c>
       <c r="G90" t="n">
         <v>4800</v>
@@ -3604,7 +3604,7 @@
         <v>23.29000091552734</v>
       </c>
       <c r="F92" t="n">
-        <v>22.03375625610352</v>
+        <v>22.03375816345215</v>
       </c>
       <c r="G92" t="n">
         <v>5000</v>
@@ -3814,7 +3814,7 @@
         <v>23.35000038146973</v>
       </c>
       <c r="F98" t="n">
-        <v>22.21208000183105</v>
+        <v>22.21207809448242</v>
       </c>
       <c r="G98" t="n">
         <v>13500</v>
@@ -3849,7 +3849,7 @@
         <v>21.02000045776367</v>
       </c>
       <c r="F99" t="n">
-        <v>19.99562835693359</v>
+        <v>19.99562644958496</v>
       </c>
       <c r="G99" t="n">
         <v>15700</v>
@@ -3884,7 +3884,7 @@
         <v>15.71000003814697</v>
       </c>
       <c r="F100" t="n">
-        <v>14.94440078735352</v>
+        <v>14.94440174102783</v>
       </c>
       <c r="G100" t="n">
         <v>7000</v>
@@ -3919,7 +3919,7 @@
         <v>17.59000015258789</v>
       </c>
       <c r="F101" t="n">
-        <v>16.73278045654297</v>
+        <v>16.7327823638916</v>
       </c>
       <c r="G101" t="n">
         <v>3300</v>
@@ -3954,7 +3954,7 @@
         <v>19.02000045776367</v>
       </c>
       <c r="F102" t="n">
-        <v>18.09309577941895</v>
+        <v>18.09309387207031</v>
       </c>
       <c r="G102" t="n">
         <v>2300</v>
@@ -3989,7 +3989,7 @@
         <v>18.97999954223633</v>
       </c>
       <c r="F103" t="n">
-        <v>18.3271427154541</v>
+        <v>18.32714462280273</v>
       </c>
       <c r="G103" t="n">
         <v>5800</v>
@@ -4024,7 +4024,7 @@
         <v>20.5</v>
       </c>
       <c r="F104" t="n">
-        <v>19.79486274719238</v>
+        <v>19.79486083984375</v>
       </c>
       <c r="G104" t="n">
         <v>53500</v>
@@ -4094,7 +4094,7 @@
         <v>20.63999938964844</v>
       </c>
       <c r="F106" t="n">
-        <v>19.93004608154297</v>
+        <v>19.93004417419434</v>
       </c>
       <c r="G106" t="n">
         <v>4000</v>
@@ -4651,25 +4651,25 @@
         <v>29.45000076293945</v>
       </c>
       <c r="E122" t="n">
-        <v>29.60000038146973</v>
+        <v>29.48999977111816</v>
       </c>
       <c r="F122" t="n">
-        <v>29.60000038146973</v>
+        <v>29.48999977111816</v>
       </c>
       <c r="G122" t="n">
-        <v>4841</v>
+        <v>22757</v>
       </c>
       <c r="H122" t="n">
-        <v>0.01613461154287088</v>
+        <v>0.0123584147175817</v>
       </c>
       <c r="I122" t="n">
-        <v>0.06204592983362292</v>
+        <v>0.0620401592667966</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1825808857153766</v>
+        <v>0.1781861351227305</v>
       </c>
       <c r="K122" t="n">
-        <v>0.1825808857153766</v>
+        <v>0.1781861351227305</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/ENOR.xlsx
+++ b/etf_dfs/ENOR.xlsx
@@ -1,40 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Adj Close</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>ENOR</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +87,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,4253 +406,4200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Volatility</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Trend</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ENOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>40909</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>26.73999977111816</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>26.73999977111816</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>25.92000007629395</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>26.1299991607666</v>
       </c>
-      <c r="F2" t="n">
-        <v>20.20322227478027</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>20.20322418212891</v>
+      </c>
+      <c r="G2">
         <v>23300</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
         <v>40940</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>29.76000022888184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>29.98999977111816</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>29.48999977111816</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>29.6200008392334</v>
       </c>
-      <c r="F3" t="n">
-        <v>22.9016284942627</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>22.90163040161133</v>
+      </c>
+      <c r="G3">
         <v>14800</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.1335630229834424</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
         <v>40969</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>28.53000068664551</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>28.76000022888184</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>28.46999931335449</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>28.76000022888184</v>
       </c>
-      <c r="F4" t="n">
-        <v>22.23669624328613</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>22.23669242858887</v>
+      </c>
+      <c r="G4">
         <v>15700</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-0.02903445597518151</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.1149737799754799</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
         <v>41000</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>27.8799991607666</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>27.97999954223633</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>27.8799991607666</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>27.97999954223633</v>
       </c>
-      <c r="F5" t="n">
-        <v>21.63361167907715</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>21.63360977172852</v>
+      </c>
+      <c r="G5">
         <v>1500</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>-0.02712102504999991</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.09332824212961044</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
         <v>41030</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>24.01000022888184</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>24.06999969482422</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>23.73999977111816</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>23.76000022888184</v>
       </c>
-      <c r="F6" t="n">
-        <v>18.37078857421875</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>18.37078475952148</v>
+      </c>
+      <c r="G6">
         <v>1200</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>-0.1508219936524418</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.1166440226814343</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
         <v>41061</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>24.70000076293945</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>25.01000022888184</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>24.70000076293945</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>24.96999931335449</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>19.81221199035645</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2500</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.05092588690305755</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.1056612551492981</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
         <v>41091</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>25.59000015258789</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>25.59000015258789</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>25.54000091552734</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>25.55999946594238</v>
       </c>
-      <c r="F8" t="n">
-        <v>20.28034400939941</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8">
+        <v>20.28034019470215</v>
+      </c>
+      <c r="G8">
         <v>16000</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.0236283607854304</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.09520129555746067</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
         <v>41122</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>26.98999977111816</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>26.98999977111816</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>26.98999977111816</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>26.98999977111816</v>
       </c>
-      <c r="F9" t="n">
-        <v>21.41496467590332</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>21.41496276855469</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.05594680497083715</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.08942514616605043</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
         <v>41153</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>28.55999946594238</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>28.55999946594238</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>28.21999931335449</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>28.21999931335449</v>
       </c>
-      <c r="F10" t="n">
-        <v>22.39089775085449</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>22.39089393615723</v>
+      </c>
+      <c r="G10">
         <v>2100</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.04557241766087539</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.08384184164785219</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
         <v>41183</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>28.09000015258789</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>28.20999908447266</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>28.09000015258789</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>28.20000076293945</v>
       </c>
-      <c r="F11" t="n">
-        <v>22.37502861022949</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>22.37503051757812</v>
+      </c>
+      <c r="G11">
         <v>10600</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-0.0007086658717803118</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.07855664151624779</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
         <v>41214</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>28.17000007629395</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>28.23999977111816</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>28.17000007629395</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>28.23999977111816</v>
       </c>
-      <c r="F12" t="n">
-        <v>22.40676498413086</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12">
+        <v>22.40676689147949</v>
+      </c>
+      <c r="G12">
         <v>500</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>0.001418404506970061</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.07413017395873617</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
         <v>41244</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>28.79999923706055</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>29.13999938964844</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>28.79999923706055</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>29.10000038146973</v>
       </c>
-      <c r="F13" t="n">
-        <v>23.0891284942627</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13">
+        <v>23.08912467956543</v>
+      </c>
+      <c r="G13">
         <v>3500</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>0.03045327965020417</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.07058712756023031</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
         <v>41275</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>30.61000061035156</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>30.61000061035156</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>30.52000045776367</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>30.57999992370605</v>
       </c>
-      <c r="F14" t="n">
-        <v>24.2634162902832</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14">
+        <v>24.26341819763184</v>
+      </c>
+      <c r="G14">
         <v>21700</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>0.05085909013179113</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>0.06822279252442394</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0.1703023691489816</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>0.1703023691489816</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
         <v>41306</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>30.02000045776367</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>30.02000045776367</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>29.76000022888184</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>29.88999938964844</v>
       </c>
-      <c r="F15" t="n">
-        <v>23.71593856811523</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15">
+        <v>23.71594047546387</v>
+      </c>
+      <c r="G15">
         <v>214200</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>-0.02256378468865594</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>0.0661611247042897</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>0.009115413327652977</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>0.009115413327652977</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
         <v>41334</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>29.28000068664551</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>29.47999954223633</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>29.27000045776367</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>29.40999984741211</v>
       </c>
-      <c r="F16" t="n">
-        <v>23.3350887298584</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16">
+        <v>23.33509254455566</v>
+      </c>
+      <c r="G16">
         <v>6800</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>-0.01605886758239827</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>0.06402122474175979</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>0.02260082104858685</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>0.02260082104858685</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
         <v>41365</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>29.44000053405762</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>29.44000053405762</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>29.44000053405762</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>29.44000053405762</v>
       </c>
-      <c r="F17" t="n">
-        <v>23.35889625549316</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17">
+        <v>23.35889434814453</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0.001020084556312861</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.06174024822614473</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>0.05218016496452726</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>0.05218016496452726</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
         <v>41395</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>29.88999938964844</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>29.90999984741211</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>29.64999961853027</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>29.64999961853027</v>
       </c>
-      <c r="F18" t="n">
-        <v>23.52551460266113</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18">
+        <v>23.5255184173584</v>
+      </c>
+      <c r="G18">
         <v>6000</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>0.00713312094643892</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>0.05965048726107233</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>0.2478955948194292</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>0.2478955948194292</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
         <v>41426</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>26.95000076293945</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>26.98999977111816</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>26.88999938964844</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>26.96999931335449</v>
       </c>
-      <c r="F19" t="n">
-        <v>21.39909553527832</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19">
+        <v>21.39909172058105</v>
+      </c>
+      <c r="G19">
         <v>7600</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>-0.09038786980290103</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>0.06264452675192994</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>0.08009611754095469</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>0.08009611754095469</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
         <v>41456</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>28.8700008392334</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>29.46999931335449</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>28.8700008392334</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>29.38999938964844</v>
       </c>
-      <c r="F20" t="n">
-        <v>23.31922149658203</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20">
+        <v>23.31922340393066</v>
+      </c>
+      <c r="G20">
         <v>5300</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>0.08972933399726313</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>0.06406358837166949</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>0.1498435056232832</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>0.1498435056232832</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
         <v>41487</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>28.3799991607666</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>28.3799991607666</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>28.22999954223633</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>28.22999954223633</v>
       </c>
-      <c r="F21" t="n">
-        <v>22.39883041381836</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>22.39882850646973</v>
+      </c>
+      <c r="G21">
         <v>400</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-0.03946920284117728</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.06322498090712021</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>0.04594293373966907</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>0.04594293373966907</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
         <v>41518</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>29.14999961853027</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>29.14999961853027</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>29.14999961853027</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>29.14999961853027</v>
       </c>
-      <c r="F22" t="n">
-        <v>23.12879943847656</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22">
+        <v>23.1287956237793</v>
+      </c>
+      <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>0.03258944708509426</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>0.06182513259039314</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>0.03295536243105723</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>0.03295536243105723</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
         <v>41548</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>31.05999946594238</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>31.20000076293945</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>31.05999946594238</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>31.19000053405762</v>
       </c>
-      <c r="F23" t="n">
-        <v>24.74741744995117</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="F23">
+        <v>24.74741554260254</v>
+      </c>
+      <c r="G23">
         <v>2400</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>0.06998287966462069</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>0.06179102515649999</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>0.1060283578093952</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>0.1060283578093952</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
         <v>41579</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>30.51000022888184</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>30.71999931335449</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>30.39999961853027</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>30.71999931335449</v>
       </c>
-      <c r="F24" t="n">
-        <v>24.3745002746582</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="F24">
+        <v>24.37449645996094</v>
+      </c>
+      <c r="G24">
         <v>1200</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>-0.01506897122973472</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>0.06054426502464675</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>0.08781868138585081</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>0.08781868138585081</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
         <v>41609</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>31.13999938964844</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>31.13999938964844</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>30.90999984741211</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>30.90999984741211</v>
       </c>
-      <c r="F25" t="n">
-        <v>24.63618278503418</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25">
+        <v>24.63617897033691</v>
+      </c>
+      <c r="G25">
         <v>3500</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>0.006184913356265032</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>0.05915551626554344</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>0.06219929354691534</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>0.06219929354691534</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
         <v>41640</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>29</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>29.29999923706055</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>29</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>29.29000091552734</v>
       </c>
-      <c r="F26" t="n">
-        <v>23.34499549865723</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26">
+        <v>23.34499740600586</v>
+      </c>
+      <c r="G26">
         <v>9500</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>-0.05241018893179961</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>0.05919910497344448</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>-0.04218440194235207</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>-0.04218440194235207</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:11">
+      <c r="A27" s="2">
         <v>41671</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>31.42000007629395</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>31.42000007629395</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>31.3700008392334</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>31.3700008392334</v>
       </c>
-      <c r="F27" t="n">
-        <v>25.0028190612793</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27">
+        <v>25.0028133392334</v>
+      </c>
+      <c r="G27">
         <v>1500</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>0.07101399312703327</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>0.05937281544759049</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>0.04951493743079549</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>0.04951493743079549</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
         <v>41699</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>31.84000015258789</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>31.84000015258789</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>31.45000076293945</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>31.45000076293945</v>
       </c>
-      <c r="F28" t="n">
-        <v>25.06657791137695</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="F28">
+        <v>25.06658172607422</v>
+      </c>
+      <c r="G28">
         <v>1300</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>0.002550204704043324</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>0.05818722698709843</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>0.0693641933393907</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>0.0693641933393907</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:11">
+      <c r="A29" s="2">
         <v>41730</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>32.52999877929688</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>32.97999954223633</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>32.38000106811523</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>32.93000030517578</v>
       </c>
-      <c r="F29" t="n">
-        <v>26.24618530273438</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="F29">
+        <v>26.24618721008301</v>
+      </c>
+      <c r="G29">
         <v>11800</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>0.04705880783253757</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>0.05753025987996773</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>0.1185461857271628</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>0.1185461857271628</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:11">
+      <c r="A30" s="2">
         <v>41760</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>33.95000076293945</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>33.95999908447266</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>33.63000106811523</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>33.90999984741211</v>
       </c>
-      <c r="F30" t="n">
-        <v>27.02727127075195</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30">
+        <v>27.02727317810059</v>
+      </c>
+      <c r="G30">
         <v>6600</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>0.02976008299891508</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>0.05657545489407157</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>0.143676232164923</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>0.143676232164923</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:11">
+      <c r="A31" s="2">
         <v>41791</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>33.33000183105469</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>33.33000183105469</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>32.83000183105469</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>32.90999984741211</v>
       </c>
-      <c r="F31" t="n">
-        <v>26.92295074462891</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="F31">
+        <v>26.92295265197754</v>
+      </c>
+      <c r="G31">
         <v>3500</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>-0.02948982614272455</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>0.05606046493280914</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>0.2202447417607594</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>0.2202447417607594</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:11">
+      <c r="A32" s="2">
         <v>41821</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>31.55999946594238</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>31.55999946594238</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>31.15999984741211</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>31.15999984741211</v>
       </c>
-      <c r="F32" t="n">
-        <v>25.49131393432617</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="F32">
+        <v>25.49131202697754</v>
+      </c>
+      <c r="G32">
         <v>24200</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>-0.05317532689498361</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>0.05626235760442862</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>0.06022458300516642</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>0.06022458300516642</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
         <v>41852</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>32.06999969482422</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>32.06999969482422</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>31.79999923706055</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>32</v>
       </c>
-      <c r="F33" t="n">
-        <v>26.17849731445312</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33">
+        <v>26.17849922180176</v>
+      </c>
+      <c r="G33">
         <v>28200</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>0.02695764302635761</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>0.05542771113229083</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>0.1335458915655732</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>0.1335458915655732</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
         <v>41883</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>30.18000030517578</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>30.34000015258789</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>29.96999931335449</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>30.14999961853027</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>24.66505241394043</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>31900</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>-0.05781251192092896</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>0.05575616681232731</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>0.03430531777311963</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>0.03430531777311963</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
         <v>41913</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>27.10000038146973</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>27.39999961853027</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>26.97999954223633</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>27.39999961853027</v>
       </c>
-      <c r="F35" t="n">
-        <v>22.41533851623535</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="F35">
+        <v>22.41534042358398</v>
+      </c>
+      <c r="G35">
         <v>290800</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>-0.09121061475270609</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>0.05742824961910622</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>-0.121513332819244</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>-0.121513332819244</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
         <v>41944</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>25.3700008392334</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>25.3700008392334</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>24.95000076293945</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>25.01000022888184</v>
       </c>
-      <c r="F36" t="n">
-        <v>20.46012878417969</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36">
+        <v>20.46013450622559</v>
+      </c>
+      <c r="G36">
         <v>20200</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>-0.0872262563110443</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>0.05863295208754588</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>-0.1858723701855822</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>-0.1858723701855822</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
         <v>41974</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>23.53000068664551</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>23.53000068664551</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>23.29000091552734</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>23.29999923706055</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>19.21019554138184</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>12700</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>-0.06837268997089252</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>0.05892254390156505</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>-0.2461986621778873</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>-0.2461986621778873</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
         <v>42005</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>22.97999954223633</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>23.32999992370605</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>22.84000015258789</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>23.21999931335449</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>19.14423561096191</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>26700</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>-0.003433473232857809</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>0.05807553311612117</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>-0.2072380133984563</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>-0.2072380133984563</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
         <v>42036</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>24.19000053405762</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>24.26000022888184</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>24.04000091552734</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>24.10000038146973</v>
       </c>
-      <c r="F39" t="n">
-        <v>19.86977577209473</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="F39">
+        <v>19.86977386474609</v>
+      </c>
+      <c r="G39">
         <v>21700</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>0.03789841060025867</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>0.05763045961510782</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>-0.2317500880864284</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>-0.2317500880864284</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
         <v>42064</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>22.57999992370605</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>22.86000061035156</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>22.57999992370605</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>22.68000030517578</v>
       </c>
-      <c r="F40" t="n">
-        <v>18.69902420043945</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40">
+        <v>18.69902229309082</v>
+      </c>
+      <c r="G40">
         <v>12700</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>-0.05892116405880932</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>0.05762974865349214</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>-0.2788553337047357</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>-0.2788553337047357</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
         <v>42095</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>25.63999938964844</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>25.65999984741211</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>25.54000091552734</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>25.60000038146973</v>
       </c>
-      <c r="F41" t="n">
-        <v>21.10647964477539</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="F41">
+        <v>21.10648155212402</v>
+      </c>
+      <c r="G41">
         <v>47400</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>0.128747797045998</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>0.06060245805042819</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>-0.2225933755170345</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>-0.2225933755170345</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
         <v>42125</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>24.6200008392334</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>24.72999954223633</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>24.51000022888184</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>24.59000015258789</v>
       </c>
-      <c r="F42" t="n">
-        <v>20.27376365661621</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="F42">
+        <v>20.27376556396484</v>
+      </c>
+      <c r="G42">
         <v>14300</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>-0.03945313335279921</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>0.06016606844554725</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>-0.2748451706506123</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>-0.2748451706506123</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
         <v>42156</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>23.63999938964844</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>23.63999938964844</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>23.26000022888184</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>23.31999969482422</v>
       </c>
-      <c r="F43" t="n">
-        <v>19.55746269226074</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43">
+        <v>19.55745887756348</v>
+      </c>
+      <c r="G43">
         <v>7400</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>-0.05164702927543552</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>0.05995968024948716</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>-0.2914007960210308</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>-0.2914007960210308</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:11">
+      <c r="A44" s="2">
         <v>42186</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>22.96999931335449</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>22.96999931335449</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>22.70000076293945</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>22.70000076293945</v>
       </c>
-      <c r="F44" t="n">
-        <v>19.03749465942383</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="F44">
+        <v>19.03749656677246</v>
+      </c>
+      <c r="G44">
         <v>2900</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>-0.02658657547162713</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>0.05935530403417303</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>-0.2715018974935994</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>-0.2715018974935994</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:11">
+      <c r="A45" s="2">
         <v>42217</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>20.3799991607666</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>20.8700008392334</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>20.3799991607666</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>20.8700008392334</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>17.50275611877441</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>8400</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>-0.08061673401763736</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>0.05986904658273196</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>-0.3478124737739563</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>-0.3478124737739563</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:11">
+      <c r="A46" s="2">
         <v>42248</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>19.43000030517578</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>19.51000022888184</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>19.43000030517578</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>19.47999954223633</v>
       </c>
-      <c r="F46" t="n">
-        <v>16.33702087402344</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="F46">
+        <v>16.33702278137207</v>
+      </c>
+      <c r="G46">
         <v>3200</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>-0.06660283857698823</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>0.05992973523118522</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>-0.3538971877709788</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>-0.3538971877709788</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:11">
+      <c r="A47" s="2">
         <v>42278</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>20.39999961853027</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>20.63999938964844</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>20.39999961853027</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>20.56999969482422</v>
       </c>
-      <c r="F47" t="n">
-        <v>17.25115776062012</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="F47">
+        <v>17.25115585327148</v>
+      </c>
+      <c r="G47">
         <v>5100</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>0.05595483460995787</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>0.05993511212450648</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>-0.2492700736786512</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>-0.2492700736786512</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:11">
+      <c r="A48" s="2">
         <v>42309</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>20.60000038146973</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>20.60000038146973</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>20.56999969482422</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>20.60000038146973</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>17.27631759643555</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>1800</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>0.001458468016071857</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>0.05927000491674457</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>-0.1763294604979407</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>-0.1763294604979407</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:11">
+      <c r="A49" s="2">
         <v>42339</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>18.89999961853027</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>19.04999923706055</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>18.89999961853027</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>18.90999984741211</v>
       </c>
-      <c r="F49" t="n">
-        <v>16.02860260009766</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="F49">
+        <v>16.02860069274902</v>
+      </c>
+      <c r="G49">
         <v>3200</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>-0.08203885935739208</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>0.05973307730796619</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>-0.1884119971414328</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>-0.1884119971414328</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
         <v>42370</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>17.84000015258789</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>18.07999992370605</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>17.79999923706055</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>18.07999992370605</v>
       </c>
-      <c r="F50" t="n">
-        <v>15.32507228851318</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="F50">
+        <v>15.32507514953613</v>
+      </c>
+      <c r="G50">
         <v>29200</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>-0.04389211689071715</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>0.0593588331118016</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>-0.2213608760398316</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>-0.2213608760398316</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:11">
+      <c r="A51" s="2">
         <v>42401</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>18.26000022888184</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>18.47999954223633</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>18.26000022888184</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>18.32999992370605</v>
       </c>
-      <c r="F51" t="n">
-        <v>15.53697967529297</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="F51">
+        <v>15.53698062896729</v>
+      </c>
+      <c r="G51">
         <v>7800</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>0.0138274336866675</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>0.05880490092378903</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>-0.2394191023415988</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>-0.2394191023415988</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:11">
+      <c r="A52" s="2">
         <v>42430</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>19.71999931335449</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>19.78000068664551</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>19.6200008392334</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>19.6200008392334</v>
       </c>
-      <c r="F52" t="n">
-        <v>16.63041877746582</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="F52">
+        <v>16.63042068481445</v>
+      </c>
+      <c r="G52">
         <v>17400</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>0.07037648231842031</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>0.05918288219837541</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>-0.1349206095576667</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>-0.1349206095576667</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:11">
+      <c r="A53" s="2">
         <v>42461</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>21.38999938964844</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>21.54999923706055</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>21.21999931335449</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>21.30999946594238</v>
       </c>
-      <c r="F53" t="n">
-        <v>18.06290435791016</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="F53">
+        <v>18.06290245056152</v>
+      </c>
+      <c r="G53">
         <v>14700</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>0.08613652163202534</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>0.05993189953182164</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>-0.1675781582656777</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>-0.1675781582656777</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:11">
+      <c r="A54" s="2">
         <v>42491</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>21</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>21</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>20.72999954223633</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>20.72999954223633</v>
       </c>
-      <c r="F54" t="n">
-        <v>17.57127952575684</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F54">
+        <v>17.57128143310547</v>
+      </c>
+      <c r="G54">
         <v>10200</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>-0.02721726598975327</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>0.05944256172623151</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>-0.1569744036762574</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>-0.1569744036762574</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:11">
+      <c r="A55" s="2">
         <v>42522</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>19.8799991607666</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>20.26000022888184</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>19.8799991607666</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>20.26000022888184</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>17.52665328979492</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>75800</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>-0.02267242275605907</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>0.05893209108277316</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>-0.1312178175809127</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>-0.1312178175809127</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:11">
+      <c r="A56" s="2">
         <v>42552</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>19.96999931335449</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>20.20000076293945</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>19.96999931335449</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>20.13999938964844</v>
       </c>
-      <c r="F56" t="n">
-        <v>17.42284202575684</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="F56">
+        <v>17.42283821105957</v>
+      </c>
+      <c r="G56">
         <v>11600</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>-0.005923042343421558</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>0.0583747621130132</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>-0.1127753871035341</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>-0.1127753871035341</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:11">
+      <c r="A57" s="2">
         <v>42583</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>20.38999938964844</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>20.40999984741211</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>20.27000045776367</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>20.29999923706055</v>
       </c>
-      <c r="F57" t="n">
-        <v>17.56125450134277</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57">
+        <v>17.56125640869141</v>
+      </c>
+      <c r="G57">
         <v>10800</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>0.007944381939472445</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>0.05785101576688521</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>-0.02731200667233846</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>-0.02731200667233846</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:11">
+      <c r="A58" s="2">
         <v>42614</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>21.54999923706055</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>21.61000061035156</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>21.38999938964844</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>21.53000068664551</v>
       </c>
-      <c r="F58" t="n">
-        <v>18.62531280517578</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="F58">
+        <v>18.62531471252441</v>
+      </c>
+      <c r="G58">
         <v>14500</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>0.06059120669026519</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>0.05794779273557669</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>0.1052362008512571</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>0.1052362008512571</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:11">
+      <c r="A59" s="2">
         <v>42644</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>21.47999954223633</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>21.47999954223633</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>21.31999969482422</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>21.35000038146973</v>
       </c>
-      <c r="F59" t="n">
-        <v>18.46959495544434</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="F59">
+        <v>18.46960258483887</v>
+      </c>
+      <c r="G59">
         <v>4500</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>-0.008360441218537962</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>0.05743465006632315</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>0.03791933389487467</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>0.03791933389487467</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:11">
+      <c r="A60" s="2">
         <v>42675</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>21.29999923706055</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>21.32999992370605</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>21.20000076293945</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>21.32999992370605</v>
       </c>
-      <c r="F60" t="n">
-        <v>18.45229530334473</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="F60">
+        <v>18.45229721069336</v>
+      </c>
+      <c r="G60">
         <v>26500</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>-0.0009367895740662879</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>0.05692875221357923</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>0.03543687032612786</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>0.03543687032612786</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:11">
+      <c r="A61" s="2">
         <v>42705</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>21.79999923706055</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>21.8700008392334</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>21.68000030517578</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>21.75</v>
       </c>
-      <c r="F61" t="n">
-        <v>19.01584625244141</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="F61">
+        <v>19.01584243774414</v>
+      </c>
+      <c r="G61">
         <v>21000</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>0.01969058029986948</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>0.05650578107982551</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>0.1501850965364526</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>0.1501850965364526</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:11">
+      <c r="A62" s="2">
         <v>42736</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>23.04000091552734</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>23.06999969482422</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>22.8700008392334</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>22.95000076293945</v>
       </c>
-      <c r="F62" t="n">
-        <v>20.06499290466309</v>
-      </c>
-      <c r="G62" t="n">
+      <c r="F62">
+        <v>20.06499862670898</v>
+      </c>
+      <c r="G62">
         <v>33400</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>0.05517244887077943</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>0.05650108057639141</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>0.2693584546340606</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>0.2693584546340606</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:11">
+      <c r="A63" s="2">
         <v>42767</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>22.52000045776367</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>22.56999969482422</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>22.42000007629395</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>22.46999931335449</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>19.64533615112305</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>33300</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>-0.02091509514718992</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>0.05608869457651873</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>0.2258592147779666</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>0.2258592147779666</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:11">
+      <c r="A64" s="2">
         <v>42795</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>22.02000045776367</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>22.02000045776367</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>21.85000038146973</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>21.95000076293945</v>
       </c>
-      <c r="F64" t="n">
-        <v>19.19070243835449</v>
-      </c>
-      <c r="G64" t="n">
+      <c r="F64">
+        <v>19.19070625305176</v>
+      </c>
+      <c r="G64">
         <v>21800</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>-0.02314190326236421</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>0.05569860812494025</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>0.1187563620816385</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>0.1187563620816385</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:11">
+      <c r="A65" s="2">
         <v>42826</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>22.15999984741211</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>22.15999984741211</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>22.07999992370605</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>22.07999992370605</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>19.30436134338379</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>1800</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>0.005922512813124614</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>0.0552550443374972</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>0.03613329315161584</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>0.03613329315161584</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:11">
+      <c r="A66" s="2">
         <v>42856</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>22.76000022888184</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>22.80999946594238</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>22.6299991607666</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>22.65999984741211</v>
       </c>
-      <c r="F66" t="n">
-        <v>19.81145095825195</v>
-      </c>
-      <c r="G66" t="n">
+      <c r="F66">
+        <v>19.81145286560059</v>
+      </c>
+      <c r="G66">
         <v>171700</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>0.02626811257745265</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>0.05492189315989331</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>0.0931018016302172</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>0.0931018016302172</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:11">
+      <c r="A67" s="2">
         <v>42887</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>21.97999954223633</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>22.10000038146973</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>21.97999954223633</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>22.10000038146973</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>19.72047996520996</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>1500</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>-0.0247131275248591</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>0.05457223888966453</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>0.09081935497536975</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>0.09081935497536975</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:11">
+      <c r="A68" s="2">
         <v>42917</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>24.45999908447266</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>24.64999961853027</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>24.35000038146973</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>24.61000061035156</v>
       </c>
-      <c r="F68" t="n">
-        <v>21.96023178100586</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="F68">
+        <v>21.96022987365723</v>
+      </c>
+      <c r="G68">
         <v>27900</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>0.1135746690297077</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>0.05596041002772796</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>0.221946442709458</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>0.221946442709458</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:11">
+      <c r="A69" s="2">
         <v>42948</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>24.98999977111816</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>25.1299991607666</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>24.95000076293945</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>25.10000038146973</v>
       </c>
-      <c r="F69" t="n">
-        <v>22.39747428894043</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="F69">
+        <v>22.3974723815918</v>
+      </c>
+      <c r="G69">
         <v>40500</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>0.01991059565078013</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>0.05558475530558955</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>0.2364532672319559</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>0.2364532672319559</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:11">
+      <c r="A70" s="2">
         <v>42979</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>25.92000007629395</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>26.06999969482422</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>25.8700008392334</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>26.04999923706055</v>
       </c>
-      <c r="F70" t="n">
-        <v>23.24518585205078</v>
-      </c>
-      <c r="G70" t="n">
+      <c r="F70">
+        <v>23.24518394470215</v>
+      </c>
+      <c r="G70">
         <v>7400</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>0.03784855940847565</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>0.05534981858967606</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>0.209939545111983</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>0.209939545111983</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:11">
+      <c r="A71" s="2">
         <v>43009</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>26.04000091552734</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>26.07999992370605</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>25.95000076293945</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>26.07999992370605</v>
       </c>
-      <c r="F71" t="n">
-        <v>23.2719554901123</v>
-      </c>
-      <c r="G71" t="n">
+      <c r="F71">
+        <v>23.27195167541504</v>
+      </c>
+      <c r="G71">
         <v>19000</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>0.00115165787040894</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>0.05494134026708763</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>0.2215456420479331</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>0.2215456420479331</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:11">
+      <c r="A72" s="2">
         <v>43040</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>25.14999961853027</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>25.27000045776367</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>25.04999923706055</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>25.07999992370605</v>
       </c>
-      <c r="F72" t="n">
-        <v>22.3796215057373</v>
-      </c>
-      <c r="G72" t="n">
+      <c r="F72">
+        <v>22.37962341308594</v>
+      </c>
+      <c r="G72">
         <v>10800</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>-0.03834355839437809</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>0.05474886514279536</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>0.1758087207413568</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>0.1758087207413568</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:11">
+      <c r="A73" s="2">
         <v>43070</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>25.78000068664551</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>25.93000030517578</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>25.78000068664551</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>25.79999923706055</v>
       </c>
-      <c r="F73" t="n">
-        <v>23.19373512268066</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="F73">
+        <v>23.19373321533203</v>
+      </c>
+      <c r="G73">
         <v>2200</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>0.02870810668041246</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>0.05445654219451811</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>0.1862068614740482</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>0.1862068614740482</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:11">
+      <c r="A74" s="2">
         <v>43101</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>27.42000007629395</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>27.5</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>27.28000068664551</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>27.32999992370605</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>24.56917572021484</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>5300</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>0.05930235394920991</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>0.05450228016246909</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>0.1908496302901912</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>0.1908496302901912</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:11">
+      <c r="A75" s="2">
         <v>43132</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>27.13999938964844</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>27.13999938964844</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>26.79999923706055</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>26.79999923706055</v>
       </c>
-      <c r="F75" t="n">
-        <v>24.09271430969238</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="F75">
+        <v>24.09271621704102</v>
+      </c>
+      <c r="G75">
         <v>2900</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>-0.01939263403311553</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>0.05418084188121864</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>0.1927013821105292</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>0.1927013821105292</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:11">
+      <c r="A76" s="2">
         <v>43160</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>26.95000076293945</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>27.1299991607666</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>26.89999961853027</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>27.11000061035156</v>
       </c>
-      <c r="F76" t="n">
-        <v>24.37140083312988</v>
-      </c>
-      <c r="G76" t="n">
+      <c r="F76">
+        <v>24.37139892578125</v>
+      </c>
+      <c r="G76">
         <v>11700</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>0.01156721575060082</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>0.05382044878963328</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>0.2350797115289531</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>0.2350797115289531</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:11">
+      <c r="A77" s="2">
         <v>43191</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>27.98999977111816</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>28.03000068664551</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>27.95000076293945</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>28.02000045776367</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>25.18947410583496</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>19200</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>0.0335669430809471</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>0.05358025778878035</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>0.2690217642473889</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>0.2690217642473889</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:11">
+      <c r="A78" s="2">
         <v>43221</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>27.8700008392334</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>27.90999984741211</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>27.69000053405762</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>27.90999984741211</v>
       </c>
-      <c r="F78" t="n">
-        <v>25.0905876159668</v>
-      </c>
-      <c r="G78" t="n">
+      <c r="F78">
+        <v>25.09058570861816</v>
+      </c>
+      <c r="G78">
         <v>7600</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>-0.003925789027640181</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>0.05322672527519089</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>0.2316857914983428</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>0.2316857914983428</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:11">
+      <c r="A79" s="2">
         <v>43252</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>27.54999923706055</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>27.64999961853027</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>27.45000076293945</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>27.56999969482422</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>25.22661781311035</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>7500</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>-0.01218201914893302</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>0.05290102319404841</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>0.2475112768749517</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>0.2475112768749517</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:11">
+      <c r="A80" s="2">
         <v>43282</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>28.05999946594238</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>28.11000061035156</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>28.01000022888184</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>28.10000038146973</v>
       </c>
-      <c r="F80" t="n">
-        <v>25.71157073974609</v>
-      </c>
-      <c r="G80" t="n">
+      <c r="F80">
+        <v>25.71156883239746</v>
+      </c>
+      <c r="G80">
         <v>7300</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>0.0192238190972851</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>0.05259222548043078</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>0.1418122586169375</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>0.1418122586169375</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:11">
+      <c r="A81" s="2">
         <v>43313</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>27.6299991607666</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>27.72999954223633</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>27.45000076293945</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>27.57999992370605</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>25.23576927185059</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>7900</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>-0.01850535411759568</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>0.05230640755976811</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>0.09880476113726311</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>0.09880476113726311</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:11">
+      <c r="A82" s="2">
         <v>43344</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>29.21999931335449</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>29.29000091552734</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>29.07999992370605</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>29.21999931335449</v>
       </c>
-      <c r="F82" t="n">
-        <v>26.73637008666992</v>
-      </c>
-      <c r="G82" t="n">
+      <c r="F82">
+        <v>26.73637199401855</v>
+      </c>
+      <c r="G82">
         <v>14200</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>0.05946335729460239</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>0.05236937800513852</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>0.1216890659936789</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>0.1216890659936789</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:11">
+      <c r="A83" s="2">
         <v>43374</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>26.63999938964844</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>26.82999992370605</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>26.59000015258789</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>26.59000015258789</v>
       </c>
-      <c r="F83" t="n">
-        <v>24.32991600036621</v>
-      </c>
-      <c r="G83" t="n">
+      <c r="F83">
+        <v>24.32991409301758</v>
+      </c>
+      <c r="G83">
         <v>16600</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>-0.09000681802085486</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>0.05305184777664931</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>0.0195552235572769</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>0.0195552235572769</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:11">
+      <c r="A84" s="2">
         <v>43405</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>25.21999931335449</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>25.27000045776367</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>25.1200008392334</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>25.20000076293945</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>23.05806350708008</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>22600</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>-0.05227526820879524</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>0.05305807947499482</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>0.004784722472027214</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>0.004784722472027214</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:11">
+      <c r="A85" s="2">
         <v>43435</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>23.46999931335449</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>23.46999931335449</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>22.61000061035156</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>23.05999946594238</v>
       </c>
-      <c r="F85" t="n">
-        <v>21.22791290283203</v>
-      </c>
-      <c r="G85" t="n">
+      <c r="F85">
+        <v>21.2279109954834</v>
+      </c>
+      <c r="G85">
         <v>6100</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>-0.08492068381776707</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>0.05356932169203033</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>-0.1062015446567253</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>-0.1062015446567253</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:11">
+      <c r="A86" s="2">
         <v>43466</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>24.81999969482422</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>24.89999961853027</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>24.80999946594238</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>24.89999961853027</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>22.92172622680664</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>1300</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>0.07979185581965909</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>0.05395415142716723</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>-0.08891329352211219</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>-0.08891329352211219</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:11">
+      <c r="A87" s="2">
         <v>43497</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>25.36000061035156</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>25.3700008392334</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>25.29000091552734</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>25.29000091552734</v>
       </c>
-      <c r="F87" t="n">
-        <v>23.28074264526367</v>
-      </c>
-      <c r="G87" t="n">
+      <c r="F87">
+        <v>23.28074073791504</v>
+      </c>
+      <c r="G87">
         <v>8900</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>0.01566270293059913</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>0.05365603677951473</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>-0.0563432225567041</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>-0.0563432225567041</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:11">
+      <c r="A88" s="2">
         <v>43525</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>25.30999946594238</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>25.30999946594238</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>24.94000053405762</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>25.07999992370605</v>
       </c>
-      <c r="F88" t="n">
-        <v>23.08742523193359</v>
-      </c>
-      <c r="G88" t="n">
+      <c r="F88">
+        <v>23.08742332458496</v>
+      </c>
+      <c r="G88">
         <v>4400</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>-0.008303716260142702</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>0.05334899819821674</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>-0.07488014167990764</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>-0.07488014167990764</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:11">
+      <c r="A89" s="2">
         <v>43556</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>25.55999946594238</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>25.65999984741211</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>25.54999923706055</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>25.65999984741211</v>
       </c>
-      <c r="F89" t="n">
-        <v>23.6213436126709</v>
-      </c>
-      <c r="G89" t="n">
+      <c r="F89">
+        <v>23.62134552001953</v>
+      </c>
+      <c r="G89">
         <v>6400</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>0.02312599383853375</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>0.05309126510373136</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>-0.08422557358301763</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>-0.08422557358301763</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:11">
+      <c r="A90" s="2">
         <v>43586</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>23.98999977111816</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>24.21999931335449</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>23.98999977111816</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>24.18000030517578</v>
       </c>
-      <c r="F90" t="n">
-        <v>22.2589282989502</v>
-      </c>
-      <c r="G90" t="n">
+      <c r="F90">
+        <v>22.25893211364746</v>
+      </c>
+      <c r="G90">
         <v>4800</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>-0.05767730128749748</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>0.05315694192499784</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>-0.1336438395782429</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>-0.1336438395782429</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:11">
+      <c r="A91" s="2">
         <v>43617</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>24.46999931335449</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>24.51000022888184</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>24.3799991607666</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>24.3799991607666</v>
       </c>
-      <c r="F91" t="n">
-        <v>23.06496047973633</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="F91">
+        <v>23.06496238708496</v>
+      </c>
+      <c r="G91">
         <v>8900</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>0.00827125116073768</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>0.05286043792939608</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>-0.1157054976194463</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>-0.1157054976194463</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:11">
+      <c r="A92" s="2">
         <v>43647</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>23.52000045776367</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>23.52000045776367</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>23.19000053405762</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>23.29000091552734</v>
       </c>
-      <c r="F92" t="n">
-        <v>22.03375816345215</v>
-      </c>
-      <c r="G92" t="n">
+      <c r="F92">
+        <v>22.03375625610352</v>
+      </c>
+      <c r="G92">
         <v>5000</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>-0.04470870725021736</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>0.0527792222487392</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>-0.1711743558948238</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>-0.1711743558948238</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:11">
+      <c r="A93" s="2">
         <v>43678</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>22.6299991607666</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>22.6299991607666</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>22.5</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>22.52000045776367</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>21.30529022216797</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>19100</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>-0.03306141809768315</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>0.05260020125867475</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>-0.1834662610565536</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>-0.1834662610565536</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:11">
+      <c r="A94" s="2">
         <v>43709</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>23.36000061035156</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>23.36000061035156</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>23.28000068664551</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>23.28000068664551</v>
       </c>
-      <c r="F94" t="n">
-        <v>22.02429580688477</v>
-      </c>
-      <c r="G94" t="n">
+      <c r="F94">
+        <v>22.0242977142334</v>
+      </c>
+      <c r="G94">
         <v>2000</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>0.03374778922883315</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>0.05243042159361536</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>-0.2032853787232709</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>-0.2032853787232709</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:11">
+      <c r="A95" s="2">
         <v>43739</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>23.45999908447266</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>23.45999908447266</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>23.25</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>23.29999923706055</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>22.04321670532227</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>1900</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>0.0008590442364768691</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>0.05214475323847881</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>-0.1237307595580116</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>-0.1237307595580116</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:11">
+      <c r="A96" s="2">
         <v>43770</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>23.51000022888184</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>23.52000045776367</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>23.3799991607666</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>23.3799991607666</v>
       </c>
-      <c r="F96" t="n">
-        <v>22.1189022064209</v>
-      </c>
-      <c r="G96" t="n">
+      <c r="F96">
+        <v>22.11890029907227</v>
+      </c>
+      <c r="G96">
         <v>8400</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>0.003433473232857809</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>0.05186477600042411</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>-0.07222228361395322</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>-0.07222228361395322</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:11">
+      <c r="A97" s="2">
         <v>43800</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>25.10000038146973</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>25.17000007629395</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>25.03000068664551</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>25.15999984741211</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>23.93387222290039</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>15900</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>0.07613347949269755</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>0.0521738407127408</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>0.09106680095857089</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>0.09106680095857089</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:11">
+      <c r="A98" s="2">
         <v>43831</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>23.46999931335449</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>23.46999931335449</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>23.29999923706055</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>23.35000038146973</v>
       </c>
-      <c r="F98" t="n">
-        <v>22.21207809448242</v>
-      </c>
-      <c r="G98" t="n">
+      <c r="F98">
+        <v>22.21208000183105</v>
+      </c>
+      <c r="G98">
         <v>13500</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>-0.07193956585530559</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>0.05242900357327746</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>-0.06224896629745558</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>-0.06224896629745558</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:11">
+      <c r="A99" s="2">
         <v>43862</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>20.70000076293945</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>21.02000045776367</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>20.54000091552734</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>21.02000045776367</v>
       </c>
-      <c r="F99" t="n">
-        <v>19.99562644958496</v>
-      </c>
-      <c r="G99" t="n">
+      <c r="F99">
+        <v>19.99562835693359</v>
+      </c>
+      <c r="G99">
         <v>15700</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>-0.0997858623400758</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>0.05313392737058843</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>-0.1688414512923965</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>-0.1688414512923965</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:11">
+      <c r="A100" s="2">
         <v>43891</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>15.86999988555908</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>15.96000003814697</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>15.59000015258789</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>15.71000003814697</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>14.94440174102783</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>7000</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>-0.2526165701226456</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>0.05865975706466892</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>-0.3736044622832073</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>-0.3736044622832073</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:11">
+      <c r="A101" s="2">
         <v>43922</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>17.63999938964844</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>17.63999938964844</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>17.52000045776367</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>17.59000015258789</v>
       </c>
-      <c r="F101" t="n">
-        <v>16.7327823638916</v>
-      </c>
-      <c r="G101" t="n">
+      <c r="F101">
+        <v>16.73278427124023</v>
+      </c>
+      <c r="G101">
         <v>3300</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>0.119669007630548</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>0.05965621862563588</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>-0.3144972619958181</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>-0.3144972619958181</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:11">
+      <c r="A102" s="2">
         <v>43952</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>18.94000053405762</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>19.04000091552734</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>18.81999969482422</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>19.02000045776367</v>
       </c>
-      <c r="F102" t="n">
-        <v>18.09309387207031</v>
-      </c>
-      <c r="G102" t="n">
+      <c r="F102">
+        <v>18.09309577941895</v>
+      </c>
+      <c r="G102">
         <v>2300</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>0.08129620766179446</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>0.05993808012024257</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>-0.2133994947182694</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>-0.2133994947182694</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:11">
+      <c r="A103" s="2">
         <v>43983</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>18.6200008392334</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>18.97999954223633</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>18.6200008392334</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>18.97999954223633</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>18.32714462280273</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>5800</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>-0.002103097506026441</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>0.05963768633130931</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>-0.2214930190489997</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>-0.2214930190489997</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:11">
+      <c r="A104" s="2">
         <v>44013</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>20.79999923706055</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>20.79999923706055</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>20.43000030517578</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>20.5</v>
       </c>
-      <c r="F104" t="n">
-        <v>19.79486083984375</v>
-      </c>
-      <c r="G104" t="n">
+      <c r="F104">
+        <v>19.79486274719238</v>
+      </c>
+      <c r="G104">
         <v>53500</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>0.08008432531208465</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>0.05988684987219418</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>-0.1197939375634486</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>-0.1197939375634486</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:11">
+      <c r="A105" s="2">
         <v>44044</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>22.26000022888184</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>22.40999984741211</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>22.20999908447266</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>22.22999954223633</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>21.46535491943359</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>8200</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>0.08439022157250387</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>0.06017726526488654</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>-0.01287748266574151</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>-0.01287748266574151</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:11">
+      <c r="A106" s="2">
         <v>44075</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>20.43000030517578</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>20.63999938964844</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>20.43000030517578</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>20.63999938964844</v>
       </c>
-      <c r="F106" t="n">
-        <v>19.93004417419434</v>
-      </c>
-      <c r="G106" t="n">
+      <c r="F106">
+        <v>19.93004608154297</v>
+      </c>
+      <c r="G106">
         <v>4000</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>-0.07152497459871465</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>0.06029700258070508</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>-0.113402114223798</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>-0.113402114223798</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:11">
+      <c r="A107" s="2">
         <v>44105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>19.26000022888184</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>19.27000045776367</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>19.14999961853027</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>19.14999961853027</v>
       </c>
-      <c r="F107" t="n">
-        <v>18.49129867553711</v>
-      </c>
-      <c r="G107" t="n">
+      <c r="F107">
+        <v>18.49129676818848</v>
+      </c>
+      <c r="G107">
         <v>4900</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>-0.07218991352613324</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>0.06041395522511168</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>-0.1781115774428593</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>-0.1781115774428593</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:11">
+      <c r="A108" s="2">
         <v>44136</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>24.07999992370605</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>24.07999992370605</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>23.42000007629395</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>23.42000007629395</v>
       </c>
-      <c r="F108" t="n">
-        <v>22.61442184448242</v>
-      </c>
-      <c r="G108" t="n">
+      <c r="F108">
+        <v>22.61442375183105</v>
+      </c>
+      <c r="G108">
         <v>8700</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>0.2229765296513038</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>0.06394310871350396</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>0.001710903206295633</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>0.001710903206295633</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:11">
+      <c r="A109" s="2">
         <v>44166</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>25.38999938964844</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>25.38999938964844</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>25.06999969482422</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>25.09000015258789</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>24.54220008850098</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>14600</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>0.07130657860177991</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>0.06400243846953771</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>-0.002782181846134546</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>-0.002782181846134546</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:11">
+      <c r="A110" s="2">
         <v>44197</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>25.18000030517578</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>25.30999946594238</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>24.93000030517578</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>25.03000068664551</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>24.48351097106934</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>7000</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>-0.002391369692207657</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>0.06370386522448025</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>0.07194862003124447</v>
       </c>
-      <c r="K110" t="n">
+      <c r="K110">
         <v>0.07194862003124447</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:11">
+      <c r="A111" s="2">
         <v>44228</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>26.60000038146973</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>26.68000030517578</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>26.04999923706055</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>26.04999923706055</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>25.48123931884766</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>12500</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>0.04075103964976101</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111">
         <v>0.06351879695197515</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111">
         <v>0.2392958453737359</v>
       </c>
-      <c r="K111" t="n">
+      <c r="K111">
         <v>0.2392958453737359</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:11">
+      <c r="A112" s="2">
         <v>44256</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>27.69000053405762</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>27.82999992370605</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>27.69000053405762</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>27.71999931335449</v>
       </c>
-      <c r="F112" t="n">
-        <v>27.11477661132812</v>
-      </c>
-      <c r="G112" t="n">
+      <c r="F112">
+        <v>27.11477851867676</v>
+      </c>
+      <c r="G112">
         <v>1600</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>0.06410749041090513</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>0.06350343469921474</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112">
         <v>0.7644811741594448</v>
       </c>
-      <c r="K112" t="n">
+      <c r="K112">
         <v>0.7644811741594448</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:11">
+      <c r="A113" s="2">
         <v>44287</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>29.21999931335449</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>29.21999931335449</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>28.69000053405762</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>28.69000053405762</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>28.06360054016113</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>13600</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>0.03499282989649322</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>0.06328900098228586</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113">
         <v>0.631040380055748</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K113">
         <v>0.631040380055748</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:11">
+      <c r="A114" s="2">
         <v>44317</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>29.10000038146973</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>29.76000022888184</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>29.10000038146973</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>29.54000091552734</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>28.89504241943359</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>28400</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>0.02962706049659003</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>0.06305402019699526</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114">
         <v>0.5531020086526639</v>
       </c>
-      <c r="K114" t="n">
+      <c r="K114">
         <v>0.5531020086526639</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:11">
+      <c r="A115" s="2">
         <v>44348</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>28.43000030517578</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>28.44000053405762</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>28.22999954223633</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>28.3700008392334</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>28.12956047058105</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>17300</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>-0.03960731347435231</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>0.06290032433909457</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115">
         <v>0.4947313763681307</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115">
         <v>0.4947313763681307</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:11">
+      <c r="A116" s="2">
         <v>44378</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>28.02000045776367</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>28.02000045776367</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>28.02000045776367</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>28.02000045776367</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>27.78252601623535</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>100</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>-0.0123369887598207</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>0.06263726367874306</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116">
         <v>0.366829290622618</v>
       </c>
-      <c r="K116" t="n">
+      <c r="K116">
         <v>0.366829290622618</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:11">
+      <c r="A117" s="2">
         <v>44409</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>29.03000068664551</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>29.03000068664551</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>28.68000030517578</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>28.78000068664551</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>28.53608512878418</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>14300</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>0.02712349095166622</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>0.06240388852493646</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>0.2946469311420532</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K117">
         <v>0.2946469311420532</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:11">
+      <c r="A118" s="2">
         <v>44440</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>28.97999954223633</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>29.1200008392334</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>28.79000091552734</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>28.86000061035156</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>28.61540603637695</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>11900</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>0.002779705413390676</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>0.06213197489688844</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>0.3982558848730244</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>0.3982558848730244</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:11">
+      <c r="A119" s="2">
         <v>44470</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>31.04999923706055</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>31.04999923706055</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>30.78000068664551</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>30.95000076293945</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>30.68769454956055</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>22000</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>0.07241857617418912</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>0.06219747960526702</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119">
         <v>0.6161880615909281</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K119">
         <v>0.6161880615909281</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:11">
+      <c r="A120" s="2">
         <v>44501</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>28.38999938964844</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>28.45000076293945</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>27.89999961853027</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>28.21999931335449</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>27.9808292388916</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>55600</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>-0.08820682979930505</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>0.06250259093147241</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120">
         <v>0.2049529983528555</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K120">
         <v>0.2049529983528555</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:11">
+      <c r="A121" s="2">
         <v>44531</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>28.96999931335449</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>29.25</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>28.96999931335449</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>29.1299991607666</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>29.1299991607666</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>17500</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>0.03224662897073394</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121">
         <v>0.06229641336808078</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121">
         <v>0.1610202863136296</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K121">
         <v>0.1610202863136296</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:11">
+      <c r="A122" s="2">
         <v>44562</v>
       </c>
-      <c r="B122" t="n">
-        <v>29.60000038146973</v>
-      </c>
-      <c r="C122" t="n">
-        <v>29.60000038146973</v>
-      </c>
-      <c r="D122" t="n">
-        <v>29.45000076293945</v>
-      </c>
-      <c r="E122" t="n">
-        <v>29.48999977111816</v>
-      </c>
-      <c r="F122" t="n">
-        <v>29.48999977111816</v>
-      </c>
-      <c r="G122" t="n">
-        <v>22757</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.0123584147175817</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.0620401592667966</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.1781861351227305</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.1781861351227305</v>
+      <c r="B122">
+        <v>29</v>
+      </c>
+      <c r="C122">
+        <v>29.01000022888184</v>
+      </c>
+      <c r="D122">
+        <v>28.94000053405762</v>
+      </c>
+      <c r="E122">
+        <v>28.97999954223633</v>
+      </c>
+      <c r="F122">
+        <v>28.97999954223633</v>
+      </c>
+      <c r="G122">
+        <v>3190</v>
+      </c>
+      <c r="H122">
+        <v>-0.005149317639950302</v>
+      </c>
+      <c r="I122">
+        <v>0.06203843004124877</v>
+      </c>
+      <c r="J122">
+        <v>0.1578105771965999</v>
+      </c>
+      <c r="K122">
+        <v>0.1578105771965999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>